--- a/Test Cases/Prapancha/Test Case- EMR OP.xlsx
+++ b/Test Cases/Prapancha/Test Case- EMR OP.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\Mediware-Repository\Test Cases\Prapancha\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4823B198-E813-4B28-AF39-33CFA115887B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMR OP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3611,8 +3617,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3732,7 +3738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3804,6 +3810,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4141,22 +4150,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R741"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R742"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H734" sqref="H734"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A730" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D735" sqref="D735"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
@@ -4172,7 +4181,7 @@
     <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="30">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4218,7 +4227,7 @@
       </c>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="45">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -4228,7 +4237,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7">
@@ -4258,11 +4267,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="45">
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -4294,11 +4303,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -4327,8 +4336,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30">
-      <c r="D5" s="32"/>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="33"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -4347,8 +4356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="210">
-      <c r="D6" s="32"/>
+    <row r="6" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="D6" s="33"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -4360,8 +4369,8 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="225">
-      <c r="D7" s="32"/>
+    <row r="7" spans="1:18" ht="225" x14ac:dyDescent="0.25">
+      <c r="D7" s="33"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -4373,8 +4382,8 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="D8" s="32"/>
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="33"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -4386,8 +4395,8 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="52.5" customHeight="1">
-      <c r="D9" s="32"/>
+    <row r="9" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="33"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -4399,8 +4408,8 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="270">
-      <c r="D10" s="32"/>
+    <row r="10" spans="1:18" ht="270" x14ac:dyDescent="0.25">
+      <c r="D10" s="33"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
@@ -4412,7 +4421,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:18" ht="60" customHeight="1">
+    <row r="11" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>279</v>
       </c>
@@ -4422,7 +4431,7 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="7">
@@ -4433,8 +4442,8 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="D12" s="34"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="35"/>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -4446,8 +4455,8 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="45" customHeight="1">
-      <c r="D13" s="34"/>
+    <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="35"/>
       <c r="E13" s="7">
         <v>3</v>
       </c>
@@ -4459,8 +4468,8 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="30">
-      <c r="D14" s="34"/>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="35"/>
       <c r="E14" s="7">
         <v>4</v>
       </c>
@@ -4472,8 +4481,8 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="30">
-      <c r="D15" s="34"/>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="35"/>
       <c r="E15" s="7">
         <v>5</v>
       </c>
@@ -4485,8 +4494,8 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:18" ht="94.5">
-      <c r="D16" s="34"/>
+    <row r="16" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="35"/>
       <c r="E16" s="7">
         <v>6</v>
       </c>
@@ -4498,8 +4507,8 @@
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
-      <c r="D17" s="34"/>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D17" s="35"/>
       <c r="E17" s="7">
         <v>7</v>
       </c>
@@ -4511,8 +4520,8 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="D18" s="34"/>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="35"/>
       <c r="E18" s="7">
         <v>8</v>
       </c>
@@ -4524,8 +4533,8 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" ht="30">
-      <c r="D19" s="34"/>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="35"/>
       <c r="E19" s="7">
         <v>9</v>
       </c>
@@ -4537,8 +4546,8 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="30">
-      <c r="D20" s="34"/>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="35"/>
       <c r="E20" s="7">
         <v>10</v>
       </c>
@@ -4550,8 +4559,8 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="30">
-      <c r="D21" s="34"/>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="35"/>
       <c r="E21" s="7">
         <v>11</v>
       </c>
@@ -4563,8 +4572,8 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="30">
-      <c r="D22" s="34"/>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="35"/>
       <c r="E22" s="7">
         <v>12</v>
       </c>
@@ -4576,8 +4585,8 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="D23" s="34"/>
+    <row r="23" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="35"/>
       <c r="E23" s="7">
         <v>13</v>
       </c>
@@ -4589,8 +4598,8 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="150">
-      <c r="D24" s="34"/>
+    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="D24" s="35"/>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -4602,7 +4611,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="45" customHeight="1">
+    <row r="25" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>276</v>
       </c>
@@ -4612,7 +4621,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="33" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="7">
@@ -4623,8 +4632,8 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="30">
-      <c r="D26" s="32"/>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="33"/>
       <c r="E26" s="7">
         <v>2</v>
       </c>
@@ -4639,8 +4648,8 @@
       </c>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" ht="30">
-      <c r="D27" s="32"/>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="33"/>
       <c r="E27" s="7">
         <v>3</v>
       </c>
@@ -4652,8 +4661,8 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" ht="60" customHeight="1">
-      <c r="D28" s="32"/>
+    <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="33"/>
       <c r="E28" s="7">
         <v>4</v>
       </c>
@@ -4665,8 +4674,8 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" ht="135">
-      <c r="D29" s="32"/>
+    <row r="29" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="D29" s="33"/>
       <c r="E29" s="7">
         <v>5</v>
       </c>
@@ -4678,7 +4687,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" ht="60" customHeight="1">
+    <row r="30" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>280</v>
       </c>
@@ -4688,7 +4697,7 @@
       <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="33" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="15">
@@ -4699,8 +4708,8 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" ht="30">
-      <c r="D31" s="32"/>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="33"/>
       <c r="E31" s="15">
         <v>2</v>
       </c>
@@ -4715,8 +4724,8 @@
       </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" ht="30">
-      <c r="D32" s="32"/>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" s="33"/>
       <c r="E32" s="15">
         <v>3</v>
       </c>
@@ -4728,8 +4737,8 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="4:11" ht="60" customHeight="1">
-      <c r="D33" s="32"/>
+    <row r="33" spans="4:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="33"/>
       <c r="E33" s="15">
         <v>4</v>
       </c>
@@ -4741,8 +4750,8 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="4:11" ht="135">
-      <c r="D34" s="32"/>
+    <row r="34" spans="4:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="D34" s="33"/>
       <c r="E34" s="15">
         <v>5</v>
       </c>
@@ -4754,8 +4763,8 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="4:11" ht="30">
-      <c r="D35" s="32"/>
+    <row r="35" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D35" s="33"/>
       <c r="E35" s="15">
         <v>6</v>
       </c>
@@ -4767,8 +4776,8 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="4:11" ht="30">
-      <c r="D36" s="32"/>
+    <row r="36" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D36" s="33"/>
       <c r="E36" s="15">
         <v>7</v>
       </c>
@@ -4780,8 +4789,8 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="4:11" ht="30">
-      <c r="D37" s="32"/>
+    <row r="37" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="33"/>
       <c r="E37" s="15">
         <v>8</v>
       </c>
@@ -4793,8 +4802,8 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="4:11" ht="30">
-      <c r="D38" s="32"/>
+    <row r="38" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D38" s="33"/>
       <c r="E38" s="15">
         <v>9</v>
       </c>
@@ -4806,8 +4815,8 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" ht="135">
-      <c r="D39" s="32"/>
+    <row r="39" spans="4:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="D39" s="33"/>
       <c r="E39" s="15">
         <v>10</v>
       </c>
@@ -4819,8 +4828,8 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" ht="45" customHeight="1">
-      <c r="D40" s="32"/>
+    <row r="40" spans="4:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="33"/>
       <c r="E40" s="15">
         <v>11</v>
       </c>
@@ -4832,8 +4841,8 @@
       </c>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11">
-      <c r="D41" s="32"/>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="33"/>
       <c r="E41" s="15">
         <v>12</v>
       </c>
@@ -4845,8 +4854,8 @@
       </c>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11">
-      <c r="D42" s="32"/>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="33"/>
       <c r="E42" s="15">
         <v>13</v>
       </c>
@@ -4858,8 +4867,8 @@
       </c>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11">
-      <c r="D43" s="32"/>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="33"/>
       <c r="E43" s="15">
         <v>14</v>
       </c>
@@ -4871,8 +4880,8 @@
       </c>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11">
-      <c r="D44" s="32"/>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="33"/>
       <c r="E44" s="15">
         <v>15</v>
       </c>
@@ -4884,8 +4893,8 @@
       </c>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" ht="30">
-      <c r="D45" s="32"/>
+    <row r="45" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="33"/>
       <c r="E45" s="15">
         <v>16</v>
       </c>
@@ -4897,8 +4906,8 @@
       </c>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" ht="45" customHeight="1">
-      <c r="D46" s="32"/>
+    <row r="46" spans="4:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="33"/>
       <c r="E46" s="15">
         <v>17</v>
       </c>
@@ -4910,8 +4919,8 @@
       </c>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" ht="30">
-      <c r="D47" s="32"/>
+    <row r="47" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D47" s="33"/>
       <c r="E47" s="15">
         <v>18</v>
       </c>
@@ -4923,8 +4932,8 @@
       </c>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11">
-      <c r="D48" s="32"/>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="33"/>
       <c r="E48" s="15">
         <v>19</v>
       </c>
@@ -4936,7 +4945,7 @@
       </c>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" ht="45">
+    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>277</v>
       </c>
@@ -4946,7 +4955,7 @@
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="35" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="7">
@@ -4957,8 +4966,8 @@
       </c>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" ht="30">
-      <c r="D50" s="34"/>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D50" s="35"/>
       <c r="E50" s="7">
         <v>2</v>
       </c>
@@ -4973,8 +4982,8 @@
       </c>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" ht="30">
-      <c r="D51" s="34"/>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="35"/>
       <c r="E51" s="7">
         <v>3</v>
       </c>
@@ -4986,8 +4995,8 @@
       </c>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" ht="180">
-      <c r="D52" s="34"/>
+    <row r="52" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="D52" s="35"/>
       <c r="E52" s="7">
         <v>4</v>
       </c>
@@ -4999,8 +5008,8 @@
       </c>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" ht="60">
-      <c r="D53" s="34"/>
+    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D53" s="35"/>
       <c r="E53" s="7">
         <v>5</v>
       </c>
@@ -5012,8 +5021,8 @@
       </c>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="45" customHeight="1">
-      <c r="D54" s="34"/>
+    <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="35"/>
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -5025,8 +5034,8 @@
       </c>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="45">
-      <c r="D55" s="34"/>
+    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D55" s="35"/>
       <c r="E55" s="7">
         <v>7</v>
       </c>
@@ -5038,7 +5047,7 @@
       </c>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="30">
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>278</v>
       </c>
@@ -5048,7 +5057,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="33" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="7">
@@ -5062,8 +5071,8 @@
       </c>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11">
-      <c r="D57" s="32"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D57" s="33"/>
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -5075,8 +5084,8 @@
       </c>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" ht="120">
-      <c r="D58" s="32"/>
+    <row r="58" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="D58" s="33"/>
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -5088,8 +5097,8 @@
       </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="45" customHeight="1">
-      <c r="D59" s="32"/>
+    <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="33"/>
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -5101,8 +5110,8 @@
       </c>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" ht="30">
-      <c r="D60" s="32"/>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D60" s="33"/>
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -5114,8 +5123,8 @@
       </c>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11">
-      <c r="D61" s="32"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D61" s="33"/>
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -5127,8 +5136,8 @@
       </c>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="90">
-      <c r="D62" s="32"/>
+    <row r="62" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="D62" s="33"/>
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -5140,8 +5149,8 @@
       </c>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="126" customHeight="1">
-      <c r="D63" s="32"/>
+    <row r="63" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="33"/>
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -5153,8 +5162,8 @@
       </c>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="30">
-      <c r="D64" s="32"/>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D64" s="33"/>
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -5166,8 +5175,8 @@
       </c>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" ht="30">
-      <c r="D65" s="32"/>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D65" s="33"/>
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -5179,8 +5188,8 @@
       </c>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" ht="120">
-      <c r="D66" s="32"/>
+    <row r="66" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="D66" s="33"/>
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -5192,8 +5201,8 @@
       </c>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" ht="99.75" customHeight="1">
-      <c r="D67" s="32"/>
+    <row r="67" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="33"/>
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -5205,8 +5214,8 @@
       </c>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" ht="105">
-      <c r="D68" s="32"/>
+    <row r="68" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="D68" s="33"/>
       <c r="E68" s="7">
         <v>13</v>
       </c>
@@ -5218,8 +5227,8 @@
       </c>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" ht="60">
-      <c r="D69" s="32"/>
+    <row r="69" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D69" s="33"/>
       <c r="E69" s="7">
         <v>14</v>
       </c>
@@ -5231,8 +5240,8 @@
       </c>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="90">
-      <c r="D70" s="32"/>
+    <row r="70" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="D70" s="33"/>
       <c r="E70" s="7">
         <v>15</v>
       </c>
@@ -5244,10 +5253,10 @@
       </c>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="60" customHeight="1">
+    <row r="72" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>281</v>
       </c>
@@ -5268,7 +5277,7 @@
       </c>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" ht="60">
+    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7">
@@ -5282,7 +5291,7 @@
       </c>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" ht="30">
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7">
@@ -5296,7 +5305,7 @@
       </c>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" ht="105">
+    <row r="75" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>282</v>
       </c>
@@ -5320,7 +5329,7 @@
       </c>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" ht="97.5" customHeight="1">
+    <row r="76" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7">
@@ -5334,7 +5343,7 @@
       </c>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" ht="235.5" customHeight="1">
+    <row r="77" spans="1:11" ht="235.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7">
@@ -5348,7 +5357,7 @@
       </c>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="60" customHeight="1">
+    <row r="78" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>283</v>
       </c>
@@ -5375,7 +5384,7 @@
       </c>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="15">
@@ -5389,7 +5398,7 @@
       </c>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="409.5">
+    <row r="80" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="15">
@@ -5403,7 +5412,7 @@
       </c>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" ht="75">
+    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>284</v>
       </c>
@@ -5427,7 +5436,7 @@
       </c>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" ht="60" customHeight="1">
+    <row r="82" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="15">
@@ -5441,7 +5450,7 @@
       </c>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="15">
@@ -5455,7 +5464,7 @@
       </c>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" ht="90">
+    <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>285</v>
       </c>
@@ -5479,7 +5488,7 @@
       </c>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" ht="30">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E85" s="15">
         <v>2</v>
       </c>
@@ -5491,7 +5500,7 @@
       </c>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="125.25" customHeight="1">
+    <row r="86" spans="1:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E86" s="15">
         <v>3</v>
       </c>
@@ -5503,7 +5512,7 @@
       </c>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="45" customHeight="1">
+    <row r="87" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E87" s="15">
         <v>4</v>
       </c>
@@ -5515,7 +5524,7 @@
       </c>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="60">
+    <row r="88" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>286</v>
       </c>
@@ -5539,7 +5548,7 @@
       </c>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" ht="30">
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="D89" s="19"/>
       <c r="E89" s="15">
@@ -5553,7 +5562,7 @@
       </c>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" ht="155.25" customHeight="1">
+    <row r="90" spans="1:11" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="E90" s="15">
         <v>3</v>
@@ -5566,7 +5575,7 @@
       </c>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="D91" s="15" t="s">
         <v>191</v>
@@ -5582,7 +5591,7 @@
       </c>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" ht="190.5" customHeight="1">
+    <row r="92" spans="1:11" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="D92" s="15" t="s">
         <v>177</v>
@@ -5598,7 +5607,7 @@
       </c>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" ht="147" customHeight="1">
+    <row r="93" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="D93" s="15" t="s">
         <v>153</v>
@@ -5614,7 +5623,7 @@
       </c>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="D94" s="15" t="s">
         <v>195</v>
@@ -5630,7 +5639,7 @@
       </c>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D95" s="15" t="s">
         <v>197</v>
       </c>
@@ -5645,7 +5654,7 @@
       </c>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D96" s="9"/>
       <c r="E96" s="15">
         <v>9</v>
@@ -5658,7 +5667,7 @@
       </c>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" ht="137.25" customHeight="1">
+    <row r="97" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="15" t="s">
         <v>204</v>
       </c>
@@ -5673,7 +5682,7 @@
       </c>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" ht="45" customHeight="1">
+    <row r="98" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>287</v>
       </c>
@@ -5697,7 +5706,7 @@
       </c>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" ht="30">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E99" s="15">
         <v>2</v>
       </c>
@@ -5709,7 +5718,7 @@
       </c>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E100" s="15">
         <v>3</v>
       </c>
@@ -5721,7 +5730,7 @@
       </c>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E101" s="15">
         <v>4</v>
       </c>
@@ -5733,7 +5742,7 @@
       </c>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E102" s="15">
         <v>5</v>
       </c>
@@ -5745,7 +5754,7 @@
       </c>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="30">
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E103" s="15">
         <v>6</v>
       </c>
@@ -5757,7 +5766,7 @@
       </c>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="75" customHeight="1">
+    <row r="104" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="15">
         <v>7</v>
       </c>
@@ -5769,7 +5778,7 @@
       </c>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E105" s="15">
         <v>8</v>
       </c>
@@ -5781,7 +5790,7 @@
       </c>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" ht="60">
+    <row r="106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>288</v>
       </c>
@@ -5808,7 +5817,7 @@
       </c>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D107" s="9" t="s">
         <v>178</v>
       </c>
@@ -5823,7 +5832,7 @@
       </c>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" ht="73.5" customHeight="1">
+    <row r="108" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="9" t="s">
         <v>210</v>
       </c>
@@ -5838,7 +5847,7 @@
       </c>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" ht="54.75" customHeight="1">
+    <row r="109" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D109" s="15" t="s">
         <v>220</v>
       </c>
@@ -5853,7 +5862,7 @@
       </c>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="30" customHeight="1">
+    <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="15" t="s">
         <v>221</v>
       </c>
@@ -5868,7 +5877,7 @@
       </c>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="51.75" customHeight="1">
+    <row r="111" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="15" t="s">
         <v>233</v>
       </c>
@@ -5883,7 +5892,7 @@
       </c>
       <c r="K111" s="10"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D112" s="15" t="s">
         <v>222</v>
       </c>
@@ -5898,7 +5907,7 @@
       </c>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="43.5" customHeight="1">
+    <row r="113" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="15" t="s">
         <v>153</v>
       </c>
@@ -5913,7 +5922,7 @@
       </c>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" ht="64.5" customHeight="1">
+    <row r="114" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="15" t="s">
         <v>223</v>
       </c>
@@ -5928,7 +5937,7 @@
       </c>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" ht="75">
+    <row r="115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>289</v>
       </c>
@@ -5955,7 +5964,7 @@
       </c>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E116" s="15">
         <v>2</v>
       </c>
@@ -5967,7 +5976,7 @@
       </c>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E117" s="15">
         <v>3</v>
       </c>
@@ -5979,7 +5988,7 @@
       </c>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="30" customHeight="1">
+    <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E118" s="15">
         <v>4</v>
       </c>
@@ -5991,7 +6000,7 @@
       </c>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="60">
+    <row r="119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>290</v>
       </c>
@@ -6018,7 +6027,7 @@
       </c>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E120" s="15">
         <v>2</v>
       </c>
@@ -6030,7 +6039,7 @@
       </c>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="60">
+    <row r="121" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>291</v>
       </c>
@@ -6057,7 +6066,7 @@
       </c>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E122" s="15">
         <v>2</v>
       </c>
@@ -6069,7 +6078,7 @@
       </c>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" ht="30" customHeight="1">
+    <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>292</v>
       </c>
@@ -6096,7 +6105,7 @@
       </c>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E124" s="15">
         <v>2</v>
       </c>
@@ -6108,7 +6117,7 @@
       </c>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="60">
+    <row r="125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>293</v>
       </c>
@@ -6135,7 +6144,7 @@
       </c>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E126" s="15">
         <v>2</v>
       </c>
@@ -6147,7 +6156,7 @@
       </c>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="60">
+    <row r="127" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>294</v>
       </c>
@@ -6174,7 +6183,7 @@
       </c>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" spans="1:11" ht="45" customHeight="1">
+    <row r="128" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E128" s="15">
         <v>2</v>
       </c>
@@ -6186,7 +6195,7 @@
       </c>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D129" s="15" t="s">
         <v>255</v>
       </c>
@@ -6201,7 +6210,7 @@
       </c>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" ht="30">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D130" s="15" t="s">
         <v>256</v>
       </c>
@@ -6216,7 +6225,7 @@
       </c>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D131" s="15" t="s">
         <v>261</v>
       </c>
@@ -6231,7 +6240,7 @@
       </c>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" ht="81" customHeight="1">
+    <row r="132" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>295</v>
       </c>
@@ -6258,7 +6267,7 @@
       </c>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D133" s="15" t="s">
         <v>268</v>
       </c>
@@ -6270,7 +6279,7 @@
       </c>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E134" s="15">
         <v>3</v>
       </c>
@@ -6279,7 +6288,7 @@
       </c>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E135" s="15">
         <v>4</v>
       </c>
@@ -6288,7 +6297,7 @@
       </c>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="1:11" ht="30">
+    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E136" s="15">
         <v>5</v>
       </c>
@@ -6300,7 +6309,7 @@
       </c>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="104.25" customHeight="1">
+    <row r="137" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>296</v>
       </c>
@@ -6327,7 +6336,7 @@
       </c>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D138" s="15" t="s">
         <v>317</v>
       </c>
@@ -6339,7 +6348,7 @@
       </c>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" ht="36" customHeight="1">
+    <row r="139" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E139" s="15">
         <v>3</v>
       </c>
@@ -6351,7 +6360,7 @@
       </c>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D140" s="15" t="s">
         <v>271</v>
       </c>
@@ -6366,7 +6375,7 @@
       </c>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="30">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D141" s="15" t="s">
         <v>299</v>
       </c>
@@ -6381,7 +6390,7 @@
       </c>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="30">
+    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D142" s="9" t="s">
         <v>302</v>
       </c>
@@ -6396,7 +6405,7 @@
       </c>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="30" customHeight="1">
+    <row r="143" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D143" s="15" t="s">
         <v>304</v>
       </c>
@@ -6411,7 +6420,7 @@
       </c>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" spans="1:11" ht="30">
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D144" s="15" t="s">
         <v>307</v>
       </c>
@@ -6426,7 +6435,7 @@
       </c>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" ht="30">
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D145" s="15" t="s">
         <v>310</v>
       </c>
@@ -6441,7 +6450,7 @@
       </c>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" ht="30">
+    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D146" s="15" t="s">
         <v>313</v>
       </c>
@@ -6456,7 +6465,7 @@
       </c>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" ht="60">
+    <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>316</v>
       </c>
@@ -6483,7 +6492,7 @@
       </c>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" ht="30">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E148" s="15">
         <v>2</v>
       </c>
@@ -6495,7 +6504,7 @@
       </c>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="60">
+    <row r="149" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>325</v>
       </c>
@@ -6522,7 +6531,7 @@
       </c>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="30">
+    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="9"/>
@@ -6537,7 +6546,7 @@
       </c>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="72" customHeight="1">
+    <row r="151" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>333</v>
       </c>
@@ -6564,7 +6573,7 @@
       </c>
       <c r="K151" s="10"/>
     </row>
-    <row r="152" spans="1:11" ht="30">
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E152" s="15">
         <v>2</v>
       </c>
@@ -6576,7 +6585,7 @@
       </c>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E153" s="15">
         <v>3</v>
       </c>
@@ -6588,7 +6597,7 @@
       </c>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" ht="60">
+    <row r="154" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>341</v>
       </c>
@@ -6615,7 +6624,7 @@
       </c>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D155" s="15" t="s">
         <v>335</v>
       </c>
@@ -6630,7 +6639,7 @@
       </c>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D156" s="15" t="s">
         <v>336</v>
       </c>
@@ -6645,7 +6654,7 @@
       </c>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D157" s="15" t="s">
         <v>153</v>
       </c>
@@ -6660,7 +6669,7 @@
       </c>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="60">
+    <row r="158" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>343</v>
       </c>
@@ -6687,7 +6696,7 @@
       </c>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="30" customHeight="1">
+    <row r="159" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D159" s="15" t="s">
         <v>335</v>
       </c>
@@ -6702,7 +6711,7 @@
       </c>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="1:11" ht="30">
+    <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D160" s="15" t="s">
         <v>348</v>
       </c>
@@ -6717,7 +6726,7 @@
       </c>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161" s="20"/>
       <c r="C161" s="20"/>
       <c r="D161" s="15" t="s">
@@ -6734,7 +6743,7 @@
       </c>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" ht="45">
+    <row r="162" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D162" s="15" t="s">
         <v>349</v>
       </c>
@@ -6749,7 +6758,7 @@
       </c>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D163" s="15" t="s">
         <v>153</v>
       </c>
@@ -6764,7 +6773,7 @@
       </c>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" ht="60">
+    <row r="164" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>371</v>
       </c>
@@ -6791,7 +6800,7 @@
       </c>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D165" s="15" t="s">
         <v>191</v>
       </c>
@@ -6806,7 +6815,7 @@
       </c>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D166" s="15" t="s">
         <v>177</v>
       </c>
@@ -6821,7 +6830,7 @@
       </c>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E167" s="15">
         <v>4</v>
       </c>
@@ -6833,7 +6842,7 @@
       </c>
       <c r="K167" s="10"/>
     </row>
-    <row r="168" spans="1:11" ht="48" customHeight="1">
+    <row r="168" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E168" s="15">
         <v>5</v>
       </c>
@@ -6845,7 +6854,7 @@
       </c>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="60">
+    <row r="169" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>372</v>
       </c>
@@ -6872,7 +6881,7 @@
       </c>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E170" s="15">
         <v>2</v>
       </c>
@@ -6884,7 +6893,7 @@
       </c>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" ht="60">
+    <row r="171" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>373</v>
       </c>
@@ -6911,7 +6920,7 @@
       </c>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" ht="30" customHeight="1">
+    <row r="172" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D172" s="15" t="s">
         <v>377</v>
       </c>
@@ -6926,7 +6935,7 @@
       </c>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D173" s="15" t="s">
         <v>378</v>
       </c>
@@ -6941,7 +6950,7 @@
       </c>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D174" s="15" t="s">
         <v>379</v>
       </c>
@@ -6956,7 +6965,7 @@
       </c>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="45">
+    <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>386</v>
       </c>
@@ -6983,7 +6992,7 @@
       </c>
       <c r="K175" s="10"/>
     </row>
-    <row r="176" spans="1:11" ht="30">
+    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E176" s="15">
         <v>2</v>
       </c>
@@ -6995,7 +7004,7 @@
       </c>
       <c r="K176" s="10"/>
     </row>
-    <row r="177" spans="1:11" ht="60">
+    <row r="177" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>390</v>
       </c>
@@ -7022,7 +7031,7 @@
       </c>
       <c r="K177" s="10"/>
     </row>
-    <row r="178" spans="1:11" ht="30" customHeight="1">
+    <row r="178" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D178" s="15" t="s">
         <v>394</v>
       </c>
@@ -7037,7 +7046,7 @@
       </c>
       <c r="K178" s="10"/>
     </row>
-    <row r="179" spans="1:11" ht="30" customHeight="1">
+    <row r="179" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
       <c r="D179" s="15" t="s">
@@ -7054,7 +7063,7 @@
       </c>
       <c r="K179" s="10"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D180" s="15" t="s">
         <v>395</v>
       </c>
@@ -7069,7 +7078,7 @@
       </c>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D181" s="15" t="s">
         <v>153</v>
       </c>
@@ -7084,7 +7093,7 @@
       </c>
       <c r="K181" s="10"/>
     </row>
-    <row r="182" spans="1:11" ht="30">
+    <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>400</v>
       </c>
@@ -7105,7 +7114,7 @@
       </c>
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="1:11" ht="45">
+    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E183" s="15">
         <v>1</v>
       </c>
@@ -7117,7 +7126,7 @@
       </c>
       <c r="K183" s="10"/>
     </row>
-    <row r="184" spans="1:11" ht="30">
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E184" s="15">
         <v>2</v>
       </c>
@@ -7129,7 +7138,7 @@
       </c>
       <c r="K184" s="10"/>
     </row>
-    <row r="185" spans="1:11" ht="30">
+    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="22"/>
       <c r="C185" s="22"/>
       <c r="E185" s="15">
@@ -7143,7 +7152,7 @@
       </c>
       <c r="K185" s="10"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
       <c r="E186" s="15">
@@ -7157,7 +7166,7 @@
       </c>
       <c r="K186" s="10"/>
     </row>
-    <row r="187" spans="1:11" ht="30">
+    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E187" s="15">
         <v>5</v>
       </c>
@@ -7169,7 +7178,7 @@
       </c>
       <c r="K187" s="10"/>
     </row>
-    <row r="188" spans="1:11" ht="32.25" customHeight="1">
+    <row r="188" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E188" s="15">
         <v>6</v>
       </c>
@@ -7181,7 +7190,7 @@
       </c>
       <c r="K188" s="10"/>
     </row>
-    <row r="189" spans="1:11" ht="45">
+    <row r="189" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>407</v>
       </c>
@@ -7208,7 +7217,7 @@
       </c>
       <c r="K189" s="10"/>
     </row>
-    <row r="190" spans="1:11" ht="30">
+    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E190" s="15">
         <v>2</v>
       </c>
@@ -7220,7 +7229,7 @@
       </c>
       <c r="K190" s="10"/>
     </row>
-    <row r="191" spans="1:11" ht="105">
+    <row r="191" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="E191" s="15">
         <v>3</v>
       </c>
@@ -7232,7 +7241,7 @@
       </c>
       <c r="K191" s="10"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E192" s="15">
         <v>4</v>
       </c>
@@ -7244,7 +7253,7 @@
       </c>
       <c r="K192" s="10"/>
     </row>
-    <row r="193" spans="1:11" ht="45">
+    <row r="193" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>423</v>
       </c>
@@ -7271,7 +7280,7 @@
       </c>
       <c r="K193" s="10"/>
     </row>
-    <row r="194" spans="1:11" ht="36.75" customHeight="1">
+    <row r="194" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E194" s="15">
         <v>2</v>
       </c>
@@ -7283,7 +7292,7 @@
       </c>
       <c r="K194" s="10"/>
     </row>
-    <row r="195" spans="1:11" ht="75">
+    <row r="195" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="E195" s="15">
         <v>3</v>
       </c>
@@ -7295,7 +7304,7 @@
       </c>
       <c r="K195" s="10"/>
     </row>
-    <row r="196" spans="1:11" ht="45">
+    <row r="196" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>429</v>
       </c>
@@ -7322,7 +7331,7 @@
       </c>
       <c r="K196" s="10"/>
     </row>
-    <row r="197" spans="1:11" ht="30">
+    <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E197" s="15">
         <v>2</v>
       </c>
@@ -7334,7 +7343,7 @@
       </c>
       <c r="K197" s="10"/>
     </row>
-    <row r="198" spans="1:11" ht="30">
+    <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E198" s="15">
         <v>3</v>
       </c>
@@ -7346,7 +7355,7 @@
       </c>
       <c r="K198" s="10"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E199" s="15">
         <v>4</v>
       </c>
@@ -7358,7 +7367,7 @@
       </c>
       <c r="K199" s="10"/>
     </row>
-    <row r="200" spans="1:11" ht="30" customHeight="1">
+    <row r="200" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D200" s="15" t="s">
         <v>433</v>
       </c>
@@ -7373,7 +7382,7 @@
       </c>
       <c r="K200" s="10"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D201" s="15" t="s">
         <v>434</v>
       </c>
@@ -7388,7 +7397,7 @@
       </c>
       <c r="K201" s="10"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
       <c r="D202" s="15" t="s">
@@ -7405,7 +7414,7 @@
       </c>
       <c r="K202" s="10"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
       <c r="D203" s="15" t="s">
@@ -7422,7 +7431,7 @@
       </c>
       <c r="K203" s="10"/>
     </row>
-    <row r="204" spans="1:11" ht="45">
+    <row r="204" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>441</v>
       </c>
@@ -7449,7 +7458,7 @@
       </c>
       <c r="K204" s="10"/>
     </row>
-    <row r="205" spans="1:11" ht="30">
+    <row r="205" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E205" s="15">
         <v>2</v>
       </c>
@@ -7461,7 +7470,7 @@
       </c>
       <c r="K205" s="10"/>
     </row>
-    <row r="206" spans="1:11" ht="75">
+    <row r="206" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="E206" s="15">
         <v>3</v>
       </c>
@@ -7473,7 +7482,7 @@
       </c>
       <c r="K206" s="10"/>
     </row>
-    <row r="207" spans="1:11" ht="45">
+    <row r="207" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>448</v>
       </c>
@@ -7500,7 +7509,7 @@
       </c>
       <c r="K207" s="10"/>
     </row>
-    <row r="208" spans="1:11" ht="30" customHeight="1">
+    <row r="208" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E208" s="15">
         <v>2</v>
       </c>
@@ -7512,7 +7521,7 @@
       </c>
       <c r="K208" s="10"/>
     </row>
-    <row r="209" spans="1:11" ht="180">
+    <row r="209" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="E209" s="15">
         <v>3</v>
       </c>
@@ -7524,7 +7533,7 @@
       </c>
       <c r="K209" s="10"/>
     </row>
-    <row r="210" spans="1:11" ht="67.5" customHeight="1">
+    <row r="210" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>453</v>
       </c>
@@ -7551,7 +7560,7 @@
       </c>
       <c r="K210" s="10"/>
     </row>
-    <row r="211" spans="1:11" ht="30">
+    <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E211" s="15">
         <v>2</v>
       </c>
@@ -7563,7 +7572,7 @@
       </c>
       <c r="K211" s="10"/>
     </row>
-    <row r="212" spans="1:11" ht="90">
+    <row r="212" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="E212" s="15">
         <v>3</v>
       </c>
@@ -7575,7 +7584,7 @@
       </c>
       <c r="K212" s="10"/>
     </row>
-    <row r="213" spans="1:11" ht="45">
+    <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>460</v>
       </c>
@@ -7599,7 +7608,7 @@
       </c>
       <c r="K213" s="10"/>
     </row>
-    <row r="214" spans="1:11" ht="30">
+    <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E214" s="15">
         <v>2</v>
       </c>
@@ -7611,7 +7620,7 @@
       </c>
       <c r="K214" s="10"/>
     </row>
-    <row r="215" spans="1:11" ht="102.75" customHeight="1">
+    <row r="215" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E215" s="15">
         <v>3</v>
       </c>
@@ -7623,7 +7632,7 @@
       </c>
       <c r="K215" s="10"/>
     </row>
-    <row r="216" spans="1:11" ht="45">
+    <row r="216" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>464</v>
       </c>
@@ -7650,7 +7659,7 @@
       </c>
       <c r="K216" s="10"/>
     </row>
-    <row r="217" spans="1:11" ht="30">
+    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E217" s="15">
         <v>2</v>
       </c>
@@ -7662,7 +7671,7 @@
       </c>
       <c r="K217" s="10"/>
     </row>
-    <row r="218" spans="1:11" ht="192" customHeight="1">
+    <row r="218" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E218" s="15">
         <v>3</v>
       </c>
@@ -7674,7 +7683,7 @@
       </c>
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="1:11" ht="45">
+    <row r="219" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>469</v>
       </c>
@@ -7701,7 +7710,7 @@
       </c>
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="1:11" ht="30">
+    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E220" s="15">
         <v>2</v>
       </c>
@@ -7713,7 +7722,7 @@
       </c>
       <c r="K220" s="10"/>
     </row>
-    <row r="221" spans="1:11" ht="120">
+    <row r="221" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="E221" s="15">
         <v>3</v>
       </c>
@@ -7725,7 +7734,7 @@
       </c>
       <c r="K221" s="10"/>
     </row>
-    <row r="222" spans="1:11" ht="65.25" customHeight="1">
+    <row r="222" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>470</v>
       </c>
@@ -7752,7 +7761,7 @@
       </c>
       <c r="K222" s="10"/>
     </row>
-    <row r="223" spans="1:11" ht="30">
+    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E223" s="15">
         <v>2</v>
       </c>
@@ -7764,7 +7773,7 @@
       </c>
       <c r="K223" s="10"/>
     </row>
-    <row r="224" spans="1:11" ht="30">
+    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E224" s="15">
         <v>3</v>
       </c>
@@ -7776,7 +7785,7 @@
       </c>
       <c r="K224" s="10"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E225" s="15">
         <v>4</v>
       </c>
@@ -7788,7 +7797,7 @@
       </c>
       <c r="K225" s="10"/>
     </row>
-    <row r="226" spans="1:11" ht="45">
+    <row r="226" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>475</v>
       </c>
@@ -7815,7 +7824,7 @@
       </c>
       <c r="K226" s="10"/>
     </row>
-    <row r="227" spans="1:11" ht="30">
+    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E227" s="15">
         <v>2</v>
       </c>
@@ -7827,7 +7836,7 @@
       </c>
       <c r="K227" s="10"/>
     </row>
-    <row r="228" spans="1:11" ht="30">
+    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E228" s="15">
         <v>3</v>
       </c>
@@ -7836,7 +7845,7 @@
       </c>
       <c r="K228" s="10"/>
     </row>
-    <row r="229" spans="1:11" ht="30">
+    <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D229" s="15" t="s">
         <v>478</v>
       </c>
@@ -7851,7 +7860,7 @@
       </c>
       <c r="K229" s="10"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D230" s="15" t="s">
         <v>479</v>
       </c>
@@ -7866,7 +7875,7 @@
       </c>
       <c r="K230" s="10"/>
     </row>
-    <row r="231" spans="1:11" ht="30">
+    <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="23"/>
       <c r="C231" s="23"/>
       <c r="D231" s="15" t="s">
@@ -7883,7 +7892,7 @@
       </c>
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B232" s="30"/>
       <c r="C232" s="30"/>
       <c r="D232" s="15" t="s">
@@ -7900,7 +7909,7 @@
       </c>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="1:11" ht="30">
+    <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>481</v>
       </c>
@@ -7921,7 +7930,7 @@
       </c>
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="1:11" ht="45">
+    <row r="234" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E234" s="15">
         <v>1</v>
       </c>
@@ -7933,7 +7942,7 @@
       </c>
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="1:11" ht="30">
+    <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E235" s="15">
         <v>2</v>
       </c>
@@ -7945,7 +7954,7 @@
       </c>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="1:11" ht="30">
+    <row r="236" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E236" s="15">
         <v>3</v>
       </c>
@@ -7957,7 +7966,7 @@
       </c>
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="1:11" ht="60" customHeight="1">
+    <row r="237" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>485</v>
       </c>
@@ -7978,7 +7987,7 @@
       </c>
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="1:11" ht="45">
+    <row r="238" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E238" s="15">
         <v>1</v>
       </c>
@@ -7990,7 +7999,7 @@
       </c>
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="1:11" ht="30">
+    <row r="239" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E239" s="15">
         <v>2</v>
       </c>
@@ -8002,7 +8011,7 @@
       </c>
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="1:11" ht="30">
+    <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E240" s="15">
         <v>3</v>
       </c>
@@ -8014,7 +8023,7 @@
       </c>
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="1:11" ht="30">
+    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D241" s="15" t="s">
         <v>433</v>
       </c>
@@ -8029,7 +8038,7 @@
       </c>
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="1:11" ht="30">
+    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>487</v>
       </c>
@@ -8050,7 +8059,7 @@
       </c>
       <c r="K242" s="10"/>
     </row>
-    <row r="243" spans="1:11" ht="63" customHeight="1">
+    <row r="243" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E243" s="15">
         <v>1</v>
       </c>
@@ -8062,7 +8071,7 @@
       </c>
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="1:11" ht="30">
+    <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E244" s="15">
         <v>2</v>
       </c>
@@ -8074,7 +8083,7 @@
       </c>
       <c r="K244" s="10"/>
     </row>
-    <row r="245" spans="1:11" ht="45">
+    <row r="245" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E245" s="15">
         <v>3</v>
       </c>
@@ -8086,7 +8095,7 @@
       </c>
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="1:11" ht="30">
+    <row r="246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E246" s="15">
         <v>4</v>
       </c>
@@ -8098,7 +8107,7 @@
       </c>
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="1:11" ht="105">
+    <row r="247" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>500</v>
       </c>
@@ -8125,7 +8134,7 @@
       </c>
       <c r="K247" s="10"/>
     </row>
-    <row r="248" spans="1:11" ht="78.75" customHeight="1">
+    <row r="248" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E248" s="15">
         <v>2</v>
       </c>
@@ -8137,7 +8146,7 @@
       </c>
       <c r="K248" s="10"/>
     </row>
-    <row r="249" spans="1:11" ht="45">
+    <row r="249" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E249" s="15">
         <v>3</v>
       </c>
@@ -8149,7 +8158,7 @@
       </c>
       <c r="K249" s="10"/>
     </row>
-    <row r="250" spans="1:11" ht="30">
+    <row r="250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E250" s="15">
         <v>4</v>
       </c>
@@ -8161,7 +8170,7 @@
       </c>
       <c r="K250" s="10"/>
     </row>
-    <row r="251" spans="1:11" ht="105">
+    <row r="251" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>504</v>
       </c>
@@ -8188,7 +8197,7 @@
       </c>
       <c r="K251" s="10"/>
     </row>
-    <row r="252" spans="1:11" ht="87" customHeight="1">
+    <row r="252" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E252" s="15">
         <v>2</v>
       </c>
@@ -8200,7 +8209,7 @@
       </c>
       <c r="K252" s="10"/>
     </row>
-    <row r="253" spans="1:11" ht="45">
+    <row r="253" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E253" s="15">
         <v>3</v>
       </c>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="K253" s="10"/>
     </row>
-    <row r="254" spans="1:11" ht="30">
+    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E254" s="15">
         <v>4</v>
       </c>
@@ -8224,7 +8233,7 @@
       </c>
       <c r="K254" s="10"/>
     </row>
-    <row r="255" spans="1:11" ht="105">
+    <row r="255" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>509</v>
       </c>
@@ -8248,7 +8257,7 @@
       </c>
       <c r="K255" s="10"/>
     </row>
-    <row r="256" spans="1:11" ht="60">
+    <row r="256" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E256" s="15">
         <v>2</v>
       </c>
@@ -8260,7 +8269,7 @@
       </c>
       <c r="K256" s="10"/>
     </row>
-    <row r="257" spans="1:11" ht="57" customHeight="1">
+    <row r="257" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E257" s="15">
         <v>3</v>
       </c>
@@ -8272,7 +8281,7 @@
       </c>
       <c r="K257" s="10"/>
     </row>
-    <row r="258" spans="1:11" ht="30" customHeight="1">
+    <row r="258" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E258" s="15">
         <v>4</v>
       </c>
@@ -8284,7 +8293,7 @@
       </c>
       <c r="K258" s="10"/>
     </row>
-    <row r="259" spans="1:11" ht="105">
+    <row r="259" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>512</v>
       </c>
@@ -8311,7 +8320,7 @@
       </c>
       <c r="K259" s="10"/>
     </row>
-    <row r="260" spans="1:11" ht="73.5" customHeight="1">
+    <row r="260" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E260" s="15">
         <v>2</v>
       </c>
@@ -8323,7 +8332,7 @@
       </c>
       <c r="K260" s="10"/>
     </row>
-    <row r="261" spans="1:11" ht="45">
+    <row r="261" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E261" s="15">
         <v>3</v>
       </c>
@@ -8335,7 +8344,7 @@
       </c>
       <c r="K261" s="10"/>
     </row>
-    <row r="262" spans="1:11" ht="39" customHeight="1">
+    <row r="262" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E262" s="15">
         <v>4</v>
       </c>
@@ -8347,7 +8356,7 @@
       </c>
       <c r="K262" s="10"/>
     </row>
-    <row r="263" spans="1:11" ht="30" customHeight="1">
+    <row r="263" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D263" s="15" t="s">
         <v>394</v>
       </c>
@@ -8359,7 +8368,7 @@
       </c>
       <c r="K263" s="10"/>
     </row>
-    <row r="264" spans="1:11" ht="49.5" customHeight="1">
+    <row r="264" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E264" s="15">
         <v>6</v>
       </c>
@@ -8371,7 +8380,7 @@
       </c>
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D265" s="15" t="s">
         <v>433</v>
       </c>
@@ -8386,7 +8395,7 @@
       </c>
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D266" s="15" t="s">
         <v>153</v>
       </c>
@@ -8401,7 +8410,7 @@
       </c>
       <c r="K266" s="10"/>
     </row>
-    <row r="267" spans="1:11" ht="122.25" customHeight="1">
+    <row r="267" spans="1:11" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>520</v>
       </c>
@@ -8428,7 +8437,7 @@
       </c>
       <c r="K267" s="10"/>
     </row>
-    <row r="268" spans="1:11" ht="60">
+    <row r="268" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E268" s="15">
         <v>2</v>
       </c>
@@ -8440,7 +8449,7 @@
       </c>
       <c r="K268" s="10"/>
     </row>
-    <row r="269" spans="1:11" ht="45">
+    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E269" s="15">
         <v>3</v>
       </c>
@@ -8452,7 +8461,7 @@
       </c>
       <c r="K269" s="10"/>
     </row>
-    <row r="270" spans="1:11" ht="30">
+    <row r="270" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E270" s="15">
         <v>4</v>
       </c>
@@ -8464,7 +8473,7 @@
       </c>
       <c r="K270" s="10"/>
     </row>
-    <row r="271" spans="1:11" ht="105">
+    <row r="271" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>527</v>
       </c>
@@ -8491,7 +8500,7 @@
       </c>
       <c r="K271" s="10"/>
     </row>
-    <row r="272" spans="1:11" ht="85.5" customHeight="1">
+    <row r="272" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E272" s="15">
         <v>2</v>
       </c>
@@ -8503,7 +8512,7 @@
       </c>
       <c r="K272" s="10"/>
     </row>
-    <row r="273" spans="1:11" ht="30">
+    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E273" s="15">
         <v>3</v>
       </c>
@@ -8515,7 +8524,7 @@
       </c>
       <c r="K273" s="10"/>
     </row>
-    <row r="274" spans="1:11" ht="30">
+    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E274" s="15">
         <v>4</v>
       </c>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="K274" s="10"/>
     </row>
-    <row r="275" spans="1:11" ht="105">
+    <row r="275" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>529</v>
       </c>
@@ -8554,7 +8563,7 @@
       </c>
       <c r="K275" s="10"/>
     </row>
-    <row r="276" spans="1:11" ht="60">
+    <row r="276" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E276" s="15">
         <v>2</v>
       </c>
@@ -8566,7 +8575,7 @@
       </c>
       <c r="K276" s="10"/>
     </row>
-    <row r="277" spans="1:11" ht="59.25" customHeight="1">
+    <row r="277" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E277" s="15">
         <v>3</v>
       </c>
@@ -8578,7 +8587,7 @@
       </c>
       <c r="K277" s="10"/>
     </row>
-    <row r="278" spans="1:11" ht="30">
+    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E278" s="15">
         <v>4</v>
       </c>
@@ -8590,7 +8599,7 @@
       </c>
       <c r="K278" s="10"/>
     </row>
-    <row r="279" spans="1:11" ht="105">
+    <row r="279" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>534</v>
       </c>
@@ -8617,7 +8626,7 @@
       </c>
       <c r="K279" s="10"/>
     </row>
-    <row r="280" spans="1:11" ht="60">
+    <row r="280" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E280" s="15">
         <v>2</v>
       </c>
@@ -8629,7 +8638,7 @@
       </c>
       <c r="K280" s="10"/>
     </row>
-    <row r="281" spans="1:11" ht="66.75" customHeight="1">
+    <row r="281" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E281" s="15">
         <v>3</v>
       </c>
@@ -8641,7 +8650,7 @@
       </c>
       <c r="K281" s="10"/>
     </row>
-    <row r="282" spans="1:11" ht="45" customHeight="1">
+    <row r="282" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E282" s="15">
         <v>4</v>
       </c>
@@ -8653,7 +8662,7 @@
       </c>
       <c r="K282" s="10"/>
     </row>
-    <row r="283" spans="1:11" ht="105">
+    <row r="283" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>536</v>
       </c>
@@ -8680,7 +8689,7 @@
       </c>
       <c r="K283" s="10"/>
     </row>
-    <row r="284" spans="1:11" ht="60">
+    <row r="284" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E284" s="15">
         <v>2</v>
       </c>
@@ -8692,7 +8701,7 @@
       </c>
       <c r="K284" s="10"/>
     </row>
-    <row r="285" spans="1:11" ht="45">
+    <row r="285" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E285" s="15">
         <v>3</v>
       </c>
@@ -8704,7 +8713,7 @@
       </c>
       <c r="K285" s="10"/>
     </row>
-    <row r="286" spans="1:11" ht="30">
+    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E286" s="15">
         <v>4</v>
       </c>
@@ -8716,7 +8725,7 @@
       </c>
       <c r="K286" s="10"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B287" s="25"/>
       <c r="C287" s="25"/>
       <c r="D287" s="15" t="s">
@@ -8733,7 +8742,7 @@
       </c>
       <c r="K287" s="10"/>
     </row>
-    <row r="288" spans="1:11" ht="30">
+    <row r="288" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B288" s="25"/>
       <c r="C288" s="25"/>
       <c r="D288" s="15" t="s">
@@ -8750,7 +8759,7 @@
       </c>
       <c r="K288" s="10"/>
     </row>
-    <row r="289" spans="1:11" ht="105">
+    <row r="289" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>539</v>
       </c>
@@ -8777,7 +8786,7 @@
       </c>
       <c r="K289" s="10"/>
     </row>
-    <row r="290" spans="1:11" ht="60">
+    <row r="290" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E290" s="15">
         <v>2</v>
       </c>
@@ -8789,7 +8798,7 @@
       </c>
       <c r="K290" s="10"/>
     </row>
-    <row r="291" spans="1:11" ht="45">
+    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E291" s="15">
         <v>3</v>
       </c>
@@ -8801,7 +8810,7 @@
       </c>
       <c r="K291" s="10"/>
     </row>
-    <row r="292" spans="1:11" ht="30">
+    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E292" s="15">
         <v>4</v>
       </c>
@@ -8813,7 +8822,7 @@
       </c>
       <c r="K292" s="10"/>
     </row>
-    <row r="293" spans="1:11" ht="38.25" customHeight="1">
+    <row r="293" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D293" s="9" t="s">
         <v>549</v>
       </c>
@@ -8828,7 +8837,7 @@
       </c>
       <c r="K293" s="10"/>
     </row>
-    <row r="294" spans="1:11" ht="38.25" customHeight="1">
+    <row r="294" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="25"/>
       <c r="C294" s="25"/>
       <c r="D294" s="9" t="s">
@@ -8845,7 +8854,7 @@
       </c>
       <c r="K294" s="10"/>
     </row>
-    <row r="295" spans="1:11" ht="38.25" customHeight="1">
+    <row r="295" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="25"/>
       <c r="C295" s="25"/>
       <c r="D295" s="9" t="s">
@@ -8862,7 +8871,7 @@
       </c>
       <c r="K295" s="10"/>
     </row>
-    <row r="296" spans="1:11" ht="45" customHeight="1">
+    <row r="296" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D296" s="15" t="s">
         <v>547</v>
       </c>
@@ -8877,7 +8886,7 @@
       </c>
       <c r="K296" s="10"/>
     </row>
-    <row r="297" spans="1:11" ht="105">
+    <row r="297" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>558</v>
       </c>
@@ -8904,7 +8913,7 @@
       </c>
       <c r="K297" s="10"/>
     </row>
-    <row r="298" spans="1:11" ht="60">
+    <row r="298" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E298" s="15">
         <v>2</v>
       </c>
@@ -8916,7 +8925,7 @@
       </c>
       <c r="K298" s="10"/>
     </row>
-    <row r="299" spans="1:11" ht="45">
+    <row r="299" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E299" s="15">
         <v>3</v>
       </c>
@@ -8928,7 +8937,7 @@
       </c>
       <c r="K299" s="10"/>
     </row>
-    <row r="300" spans="1:11" ht="30">
+    <row r="300" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E300" s="15">
         <v>4</v>
       </c>
@@ -8940,7 +8949,7 @@
       </c>
       <c r="K300" s="10"/>
     </row>
-    <row r="301" spans="1:11" ht="105">
+    <row r="301" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>561</v>
       </c>
@@ -8968,7 +8977,7 @@
       <c r="J301" s="10"/>
       <c r="K301" s="10"/>
     </row>
-    <row r="302" spans="1:11" ht="60">
+    <row r="302" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E302" s="15">
         <v>2</v>
       </c>
@@ -8981,7 +8990,7 @@
       <c r="J302" s="10"/>
       <c r="K302" s="10"/>
     </row>
-    <row r="303" spans="1:11" ht="45">
+    <row r="303" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E303" s="15">
         <v>3</v>
       </c>
@@ -8994,7 +9003,7 @@
       <c r="J303" s="10"/>
       <c r="K303" s="10"/>
     </row>
-    <row r="304" spans="1:11" ht="30">
+    <row r="304" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E304" s="15">
         <v>4</v>
       </c>
@@ -9007,7 +9016,7 @@
       <c r="J304" s="10"/>
       <c r="K304" s="10"/>
     </row>
-    <row r="305" spans="1:11" ht="105">
+    <row r="305" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>563</v>
       </c>
@@ -9035,7 +9044,7 @@
       <c r="J305" s="10"/>
       <c r="K305" s="10"/>
     </row>
-    <row r="306" spans="1:11" ht="60">
+    <row r="306" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E306" s="15">
         <v>2</v>
       </c>
@@ -9048,7 +9057,7 @@
       <c r="J306" s="10"/>
       <c r="K306" s="10"/>
     </row>
-    <row r="307" spans="1:11" ht="45">
+    <row r="307" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E307" s="15">
         <v>3</v>
       </c>
@@ -9061,7 +9070,7 @@
       <c r="J307" s="10"/>
       <c r="K307" s="10"/>
     </row>
-    <row r="308" spans="1:11" ht="30">
+    <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E308" s="15">
         <v>4</v>
       </c>
@@ -9074,7 +9083,7 @@
       <c r="J308" s="10"/>
       <c r="K308" s="10"/>
     </row>
-    <row r="309" spans="1:11" ht="30">
+    <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="25"/>
       <c r="C309" s="25"/>
       <c r="D309" s="15" t="s">
@@ -9092,7 +9101,7 @@
       <c r="J309" s="10"/>
       <c r="K309" s="10"/>
     </row>
-    <row r="310" spans="1:11" ht="105">
+    <row r="310" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>567</v>
       </c>
@@ -9120,7 +9129,7 @@
       <c r="J310" s="10"/>
       <c r="K310" s="10"/>
     </row>
-    <row r="311" spans="1:11" ht="60">
+    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E311" s="15">
         <v>2</v>
       </c>
@@ -9133,7 +9142,7 @@
       <c r="J311" s="10"/>
       <c r="K311" s="10"/>
     </row>
-    <row r="312" spans="1:11" ht="45">
+    <row r="312" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E312" s="15">
         <v>3</v>
       </c>
@@ -9146,7 +9155,7 @@
       <c r="J312" s="10"/>
       <c r="K312" s="10"/>
     </row>
-    <row r="313" spans="1:11" ht="30">
+    <row r="313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E313" s="15">
         <v>4</v>
       </c>
@@ -9159,7 +9168,7 @@
       <c r="J313" s="10"/>
       <c r="K313" s="10"/>
     </row>
-    <row r="314" spans="1:11" ht="30">
+    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D314" s="15" t="s">
         <v>433</v>
       </c>
@@ -9175,7 +9184,7 @@
       <c r="J314" s="10"/>
       <c r="K314" s="10"/>
     </row>
-    <row r="315" spans="1:11" ht="30">
+    <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D315" s="15" t="s">
         <v>394</v>
       </c>
@@ -9188,7 +9197,7 @@
       <c r="J315" s="10"/>
       <c r="K315" s="10"/>
     </row>
-    <row r="316" spans="1:11" ht="34.5" customHeight="1">
+    <row r="316" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E316" s="15">
         <v>7</v>
       </c>
@@ -9201,7 +9210,7 @@
       <c r="J316" s="10"/>
       <c r="K316" s="10"/>
     </row>
-    <row r="317" spans="1:11" ht="75">
+    <row r="317" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>575</v>
       </c>
@@ -9226,7 +9235,7 @@
       <c r="J317" s="10"/>
       <c r="K317" s="10"/>
     </row>
-    <row r="318" spans="1:11" ht="45">
+    <row r="318" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E318" s="15">
         <v>2</v>
       </c>
@@ -9236,7 +9245,7 @@
       <c r="J318" s="10"/>
       <c r="K318" s="10"/>
     </row>
-    <row r="319" spans="1:11" ht="45">
+    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D319" s="15" t="s">
         <v>579</v>
       </c>
@@ -9252,7 +9261,7 @@
       <c r="J319" s="10"/>
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B320" s="25"/>
       <c r="C320" s="25"/>
       <c r="D320" s="15" t="s">
@@ -9270,7 +9279,7 @@
       <c r="J320" s="10"/>
       <c r="K320" s="10"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B321" s="25"/>
       <c r="C321" s="25"/>
       <c r="D321" s="15" t="s">
@@ -9288,7 +9297,7 @@
       <c r="J321" s="10"/>
       <c r="K321" s="10"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B322" s="25"/>
       <c r="C322" s="25"/>
       <c r="D322" s="15" t="s">
@@ -9306,7 +9315,7 @@
       <c r="J322" s="10"/>
       <c r="K322" s="10"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D323" s="15" t="s">
         <v>580</v>
       </c>
@@ -9322,7 +9331,7 @@
       <c r="J323" s="10"/>
       <c r="K323" s="10"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D324" s="15" t="s">
         <v>178</v>
       </c>
@@ -9338,7 +9347,7 @@
       <c r="J324" s="10"/>
       <c r="K324" s="10"/>
     </row>
-    <row r="325" spans="1:11" ht="75">
+    <row r="325" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>582</v>
       </c>
@@ -9366,7 +9375,7 @@
       <c r="J325" s="10"/>
       <c r="K325" s="10"/>
     </row>
-    <row r="326" spans="1:11" ht="60">
+    <row r="326" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E326" s="15">
         <v>2</v>
       </c>
@@ -9379,7 +9388,7 @@
       <c r="J326" s="10"/>
       <c r="K326" s="10"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E327" s="15">
         <v>3</v>
       </c>
@@ -9392,7 +9401,7 @@
       <c r="J327" s="10"/>
       <c r="K327" s="10"/>
     </row>
-    <row r="328" spans="1:11" ht="30">
+    <row r="328" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D328" s="9" t="s">
         <v>605</v>
       </c>
@@ -9408,7 +9417,7 @@
       <c r="J328" s="10"/>
       <c r="K328" s="10"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D329" s="9" t="s">
         <v>598</v>
       </c>
@@ -9421,7 +9430,7 @@
       <c r="J329" s="10"/>
       <c r="K329" s="10"/>
     </row>
-    <row r="330" spans="1:11" ht="45" customHeight="1">
+    <row r="330" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D330" s="15" t="s">
         <v>335</v>
       </c>
@@ -9437,7 +9446,7 @@
       <c r="J330" s="10"/>
       <c r="K330" s="10"/>
     </row>
-    <row r="331" spans="1:11" ht="60">
+    <row r="331" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>601</v>
       </c>
@@ -9462,7 +9471,7 @@
       <c r="J331" s="10"/>
       <c r="K331" s="10"/>
     </row>
-    <row r="332" spans="1:11" ht="30">
+    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E332" s="15">
         <v>2</v>
       </c>
@@ -9475,7 +9484,7 @@
       <c r="J332" s="10"/>
       <c r="K332" s="10"/>
     </row>
-    <row r="333" spans="1:11" ht="30">
+    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E333" s="15">
         <v>3</v>
       </c>
@@ -9488,7 +9497,7 @@
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B334" s="25"/>
       <c r="C334" s="25"/>
       <c r="D334" s="15" t="s">
@@ -9506,7 +9515,7 @@
       <c r="J334" s="10"/>
       <c r="K334" s="10"/>
     </row>
-    <row r="335" spans="1:11" ht="60">
+    <row r="335" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>610</v>
       </c>
@@ -9534,7 +9543,7 @@
       <c r="J335" s="10"/>
       <c r="K335" s="10"/>
     </row>
-    <row r="336" spans="1:11" ht="30">
+    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E336" s="15">
         <v>2</v>
       </c>
@@ -9547,7 +9556,7 @@
       <c r="J336" s="10"/>
       <c r="K336" s="10"/>
     </row>
-    <row r="337" spans="1:11" ht="68.25" customHeight="1">
+    <row r="337" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E337" s="15">
         <v>3</v>
       </c>
@@ -9560,7 +9569,7 @@
       <c r="J337" s="10"/>
       <c r="K337" s="10"/>
     </row>
-    <row r="338" spans="1:11" ht="77.25" customHeight="1">
+    <row r="338" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>618</v>
       </c>
@@ -9588,7 +9597,7 @@
       <c r="J338" s="10"/>
       <c r="K338" s="10"/>
     </row>
-    <row r="339" spans="1:11" ht="30">
+    <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E339" s="15">
         <v>2</v>
       </c>
@@ -9601,7 +9610,7 @@
       <c r="J339" s="10"/>
       <c r="K339" s="10"/>
     </row>
-    <row r="340" spans="1:11" ht="53.25" customHeight="1">
+    <row r="340" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E340" s="15">
         <v>3</v>
       </c>
@@ -9614,7 +9623,7 @@
       <c r="J340" s="10"/>
       <c r="K340" s="10"/>
     </row>
-    <row r="341" spans="1:11" ht="62.25" customHeight="1">
+    <row r="341" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>623</v>
       </c>
@@ -9642,7 +9651,7 @@
       <c r="J341" s="10"/>
       <c r="K341" s="10"/>
     </row>
-    <row r="342" spans="1:11" ht="30">
+    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E342" s="15">
         <v>2</v>
       </c>
@@ -9655,7 +9664,7 @@
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
     </row>
-    <row r="343" spans="1:11" ht="45.75" customHeight="1">
+    <row r="343" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E343" s="15">
         <v>3</v>
       </c>
@@ -9668,7 +9677,7 @@
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
     </row>
-    <row r="344" spans="1:11" ht="60">
+    <row r="344" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>627</v>
       </c>
@@ -9696,7 +9705,7 @@
       <c r="J344" s="10"/>
       <c r="K344" s="10"/>
     </row>
-    <row r="345" spans="1:11" ht="30">
+    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E345" s="15">
         <v>2</v>
       </c>
@@ -9709,7 +9718,7 @@
       <c r="J345" s="10"/>
       <c r="K345" s="10"/>
     </row>
-    <row r="346" spans="1:11" ht="59.25" customHeight="1">
+    <row r="346" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E346" s="15">
         <v>3</v>
       </c>
@@ -9722,7 +9731,7 @@
       <c r="J346" s="10"/>
       <c r="K346" s="10"/>
     </row>
-    <row r="347" spans="1:11" ht="60">
+    <row r="347" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>631</v>
       </c>
@@ -9750,7 +9759,7 @@
       <c r="J347" s="10"/>
       <c r="K347" s="10"/>
     </row>
-    <row r="348" spans="1:11" ht="42" customHeight="1">
+    <row r="348" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E348" s="15">
         <v>2</v>
       </c>
@@ -9763,7 +9772,7 @@
       <c r="J348" s="10"/>
       <c r="K348" s="10"/>
     </row>
-    <row r="349" spans="1:11" ht="45" customHeight="1">
+    <row r="349" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E349" s="15">
         <v>3</v>
       </c>
@@ -9776,7 +9785,7 @@
       <c r="J349" s="10"/>
       <c r="K349" s="10"/>
     </row>
-    <row r="350" spans="1:11" ht="60">
+    <row r="350" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>632</v>
       </c>
@@ -9804,7 +9813,7 @@
       <c r="J350" s="10"/>
       <c r="K350" s="10"/>
     </row>
-    <row r="351" spans="1:11" ht="60.75" customHeight="1">
+    <row r="351" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E351" s="15">
         <v>2</v>
       </c>
@@ -9817,7 +9826,7 @@
       <c r="J351" s="10"/>
       <c r="K351" s="10"/>
     </row>
-    <row r="352" spans="1:11" ht="51.75" customHeight="1">
+    <row r="352" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E352" s="15">
         <v>3</v>
       </c>
@@ -9830,7 +9839,7 @@
       <c r="J352" s="10"/>
       <c r="K352" s="10"/>
     </row>
-    <row r="353" spans="1:11" ht="30">
+    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B353" s="25"/>
       <c r="C353" s="25"/>
       <c r="D353" s="15" t="s">
@@ -9848,7 +9857,7 @@
       <c r="J353" s="10"/>
       <c r="K353" s="10"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B354" s="25"/>
       <c r="C354" s="25"/>
       <c r="E354" s="15">
@@ -9863,7 +9872,7 @@
       <c r="J354" s="10"/>
       <c r="K354" s="10"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" s="25"/>
       <c r="C355" s="25"/>
       <c r="E355" s="15">
@@ -9878,7 +9887,7 @@
       <c r="J355" s="10"/>
       <c r="K355" s="10"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B356" s="25"/>
       <c r="C356" s="25"/>
       <c r="E356" s="15">
@@ -9893,7 +9902,7 @@
       <c r="J356" s="10"/>
       <c r="K356" s="10"/>
     </row>
-    <row r="357" spans="1:11" ht="63.75" customHeight="1">
+    <row r="357" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>633</v>
       </c>
@@ -9921,7 +9930,7 @@
       <c r="J357" s="10"/>
       <c r="K357" s="10"/>
     </row>
-    <row r="358" spans="1:11" ht="30">
+    <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E358" s="15">
         <v>2</v>
       </c>
@@ -9934,7 +9943,7 @@
       <c r="J358" s="10"/>
       <c r="K358" s="10"/>
     </row>
-    <row r="359" spans="1:11" ht="48" customHeight="1">
+    <row r="359" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E359" s="15">
         <v>3</v>
       </c>
@@ -9947,7 +9956,7 @@
       <c r="J359" s="10"/>
       <c r="K359" s="10"/>
     </row>
-    <row r="360" spans="1:11" ht="48" customHeight="1">
+    <row r="360" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="25"/>
       <c r="C360" s="25"/>
       <c r="D360" s="15" t="s">
@@ -9965,7 +9974,7 @@
       <c r="J360" s="10"/>
       <c r="K360" s="10"/>
     </row>
-    <row r="361" spans="1:11" ht="48" customHeight="1">
+    <row r="361" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="25"/>
       <c r="C361" s="25"/>
       <c r="D361" s="15" t="s">
@@ -9983,7 +9992,7 @@
       <c r="J361" s="10"/>
       <c r="K361" s="10"/>
     </row>
-    <row r="362" spans="1:11" ht="48" customHeight="1">
+    <row r="362" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="25"/>
       <c r="C362" s="25"/>
       <c r="D362" s="15" t="s">
@@ -10001,7 +10010,7 @@
       <c r="J362" s="10"/>
       <c r="K362" s="10"/>
     </row>
-    <row r="363" spans="1:11" ht="60">
+    <row r="363" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>634</v>
       </c>
@@ -10029,7 +10038,7 @@
       <c r="J363" s="10"/>
       <c r="K363" s="10"/>
     </row>
-    <row r="364" spans="1:11" ht="30">
+    <row r="364" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E364" s="15">
         <v>2</v>
       </c>
@@ -10042,7 +10051,7 @@
       <c r="J364" s="10"/>
       <c r="K364" s="10"/>
     </row>
-    <row r="365" spans="1:11" ht="45.75" customHeight="1">
+    <row r="365" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E365" s="15">
         <v>3</v>
       </c>
@@ -10055,7 +10064,7 @@
       <c r="J365" s="10"/>
       <c r="K365" s="10"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D366" s="15" t="s">
         <v>433</v>
       </c>
@@ -10071,7 +10080,7 @@
       <c r="J366" s="10"/>
       <c r="K366" s="10"/>
     </row>
-    <row r="367" spans="1:11" ht="30">
+    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D367" s="15" t="s">
         <v>652</v>
       </c>
@@ -10087,7 +10096,7 @@
       <c r="J367" s="10"/>
       <c r="K367" s="10"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D368" s="15" t="s">
         <v>653</v>
       </c>
@@ -10103,7 +10112,7 @@
       <c r="J368" s="10"/>
       <c r="K368" s="10"/>
     </row>
-    <row r="369" spans="1:11" ht="60">
+    <row r="369" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>662</v>
       </c>
@@ -10131,7 +10140,7 @@
       <c r="J369" s="10"/>
       <c r="K369" s="10"/>
     </row>
-    <row r="370" spans="1:11" ht="30">
+    <row r="370" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E370" s="15">
         <v>2</v>
       </c>
@@ -10144,7 +10153,7 @@
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
     </row>
-    <row r="371" spans="1:11" ht="53.25" customHeight="1">
+    <row r="371" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E371" s="15">
         <v>3</v>
       </c>
@@ -10157,7 +10166,7 @@
       <c r="J371" s="10"/>
       <c r="K371" s="10"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D372" s="15" t="s">
         <v>433</v>
       </c>
@@ -10173,7 +10182,7 @@
       <c r="J372" s="10"/>
       <c r="K372" s="10"/>
     </row>
-    <row r="373" spans="1:11" ht="30">
+    <row r="373" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D373" s="15" t="s">
         <v>652</v>
       </c>
@@ -10189,7 +10198,7 @@
       <c r="J373" s="10"/>
       <c r="K373" s="10"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D374" s="15" t="s">
         <v>653</v>
       </c>
@@ -10205,7 +10214,7 @@
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
     </row>
-    <row r="375" spans="1:11" ht="60">
+    <row r="375" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>665</v>
       </c>
@@ -10233,7 +10242,7 @@
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
     </row>
-    <row r="376" spans="1:11" ht="30">
+    <row r="376" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E376" s="15">
         <v>2</v>
       </c>
@@ -10246,7 +10255,7 @@
       <c r="J376" s="10"/>
       <c r="K376" s="10"/>
     </row>
-    <row r="377" spans="1:11" ht="44.25" customHeight="1">
+    <row r="377" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E377" s="15">
         <v>3</v>
       </c>
@@ -10259,7 +10268,7 @@
       <c r="J377" s="10"/>
       <c r="K377" s="10"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D378" s="15" t="s">
         <v>433</v>
       </c>
@@ -10275,7 +10284,7 @@
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
     </row>
-    <row r="379" spans="1:11" ht="30">
+    <row r="379" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D379" s="15" t="s">
         <v>652</v>
       </c>
@@ -10291,7 +10300,7 @@
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
     </row>
-    <row r="380" spans="1:11" ht="60">
+    <row r="380" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>668</v>
       </c>
@@ -10319,7 +10328,7 @@
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
     </row>
-    <row r="381" spans="1:11" ht="30">
+    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E381" s="15">
         <v>2</v>
       </c>
@@ -10332,7 +10341,7 @@
       <c r="J381" s="10"/>
       <c r="K381" s="10"/>
     </row>
-    <row r="382" spans="1:11" ht="43.5" customHeight="1">
+    <row r="382" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D382" s="15" t="s">
         <v>679</v>
       </c>
@@ -10348,7 +10357,7 @@
       <c r="J382" s="10"/>
       <c r="K382" s="10"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D383" s="15" t="s">
         <v>433</v>
       </c>
@@ -10364,7 +10373,7 @@
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
     </row>
-    <row r="384" spans="1:11" ht="45" customHeight="1">
+    <row r="384" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D384" s="15" t="s">
         <v>652</v>
       </c>
@@ -10380,7 +10389,7 @@
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D385" s="15" t="s">
         <v>653</v>
       </c>
@@ -10396,7 +10405,7 @@
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
     </row>
-    <row r="386" spans="1:11" ht="60">
+    <row r="386" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>677</v>
       </c>
@@ -10424,7 +10433,7 @@
       <c r="J386" s="10"/>
       <c r="K386" s="10"/>
     </row>
-    <row r="387" spans="1:11" ht="30">
+    <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E387" s="15">
         <v>2</v>
       </c>
@@ -10437,7 +10446,7 @@
       <c r="J387" s="10"/>
       <c r="K387" s="10"/>
     </row>
-    <row r="388" spans="1:11" ht="45" customHeight="1">
+    <row r="388" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D388" s="15" t="s">
         <v>679</v>
       </c>
@@ -10453,7 +10462,7 @@
       <c r="J388" s="10"/>
       <c r="K388" s="10"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D389" s="15" t="s">
         <v>433</v>
       </c>
@@ -10469,7 +10478,7 @@
       <c r="J389" s="10"/>
       <c r="K389" s="10"/>
     </row>
-    <row r="390" spans="1:11" ht="30">
+    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D390" s="15" t="s">
         <v>652</v>
       </c>
@@ -10485,7 +10494,7 @@
       <c r="J390" s="10"/>
       <c r="K390" s="10"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D391" s="15" t="s">
         <v>653</v>
       </c>
@@ -10501,7 +10510,7 @@
       <c r="J391" s="10"/>
       <c r="K391" s="10"/>
     </row>
-    <row r="392" spans="1:11" ht="66.75" customHeight="1">
+    <row r="392" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>682</v>
       </c>
@@ -10529,7 +10538,7 @@
       <c r="J392" s="10"/>
       <c r="K392" s="10"/>
     </row>
-    <row r="393" spans="1:11" ht="30">
+    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E393" s="15">
         <v>2</v>
       </c>
@@ -10542,7 +10551,7 @@
       <c r="J393" s="10"/>
       <c r="K393" s="10"/>
     </row>
-    <row r="394" spans="1:11" ht="45" customHeight="1">
+    <row r="394" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D394" s="15" t="s">
         <v>679</v>
       </c>
@@ -10558,7 +10567,7 @@
       <c r="J394" s="10"/>
       <c r="K394" s="10"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D395" s="15" t="s">
         <v>433</v>
       </c>
@@ -10574,7 +10583,7 @@
       <c r="J395" s="10"/>
       <c r="K395" s="10"/>
     </row>
-    <row r="396" spans="1:11" ht="30">
+    <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D396" s="15" t="s">
         <v>652</v>
       </c>
@@ -10590,7 +10599,7 @@
       <c r="J396" s="10"/>
       <c r="K396" s="10"/>
     </row>
-    <row r="397" spans="1:11" ht="45" customHeight="1">
+    <row r="397" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D397" s="15" t="s">
         <v>653</v>
       </c>
@@ -10606,7 +10615,7 @@
       <c r="J397" s="10"/>
       <c r="K397" s="10"/>
     </row>
-    <row r="398" spans="1:11" ht="60">
+    <row r="398" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
         <v>686</v>
       </c>
@@ -10634,7 +10643,7 @@
       <c r="J398" s="10"/>
       <c r="K398" s="10"/>
     </row>
-    <row r="399" spans="1:11" ht="30">
+    <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E399" s="15">
         <v>2</v>
       </c>
@@ -10647,7 +10656,7 @@
       <c r="J399" s="10"/>
       <c r="K399" s="10"/>
     </row>
-    <row r="400" spans="1:11" ht="66" customHeight="1">
+    <row r="400" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D400" s="15" t="s">
         <v>679</v>
       </c>
@@ -10663,7 +10672,7 @@
       <c r="J400" s="10"/>
       <c r="K400" s="10"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D401" s="15" t="s">
         <v>433</v>
       </c>
@@ -10679,7 +10688,7 @@
       <c r="J401" s="10"/>
       <c r="K401" s="10"/>
     </row>
-    <row r="402" spans="1:11" ht="45" customHeight="1">
+    <row r="402" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D402" s="15" t="s">
         <v>652</v>
       </c>
@@ -10695,7 +10704,7 @@
       <c r="J402" s="10"/>
       <c r="K402" s="10"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D403" s="15" t="s">
         <v>653</v>
       </c>
@@ -10711,7 +10720,7 @@
       <c r="J403" s="10"/>
       <c r="K403" s="10"/>
     </row>
-    <row r="404" spans="1:11" ht="60">
+    <row r="404" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
         <v>690</v>
       </c>
@@ -10739,7 +10748,7 @@
       <c r="J404" s="10"/>
       <c r="K404" s="10"/>
     </row>
-    <row r="405" spans="1:11" ht="30">
+    <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E405" s="15">
         <v>2</v>
       </c>
@@ -10752,7 +10761,7 @@
       <c r="J405" s="10"/>
       <c r="K405" s="10"/>
     </row>
-    <row r="406" spans="1:11" ht="56.25" customHeight="1">
+    <row r="406" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D406" s="15" t="s">
         <v>679</v>
       </c>
@@ -10768,7 +10777,7 @@
       <c r="J406" s="10"/>
       <c r="K406" s="10"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D407" s="15" t="s">
         <v>433</v>
       </c>
@@ -10784,7 +10793,7 @@
       <c r="J407" s="10"/>
       <c r="K407" s="10"/>
     </row>
-    <row r="408" spans="1:11" ht="30">
+    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D408" s="15" t="s">
         <v>652</v>
       </c>
@@ -10800,7 +10809,7 @@
       <c r="J408" s="10"/>
       <c r="K408" s="10"/>
     </row>
-    <row r="409" spans="1:11" ht="60">
+    <row r="409" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
         <v>693</v>
       </c>
@@ -10828,7 +10837,7 @@
       <c r="J409" s="10"/>
       <c r="K409" s="10"/>
     </row>
-    <row r="410" spans="1:11" ht="30">
+    <row r="410" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E410" s="15">
         <v>2</v>
       </c>
@@ -10841,7 +10850,7 @@
       <c r="J410" s="10"/>
       <c r="K410" s="10"/>
     </row>
-    <row r="411" spans="1:11" ht="52.5" customHeight="1">
+    <row r="411" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D411" s="15" t="s">
         <v>679</v>
       </c>
@@ -10857,7 +10866,7 @@
       <c r="J411" s="10"/>
       <c r="K411" s="10"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D412" s="15" t="s">
         <v>433</v>
       </c>
@@ -10873,7 +10882,7 @@
       <c r="J412" s="10"/>
       <c r="K412" s="10"/>
     </row>
-    <row r="413" spans="1:11" ht="30">
+    <row r="413" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D413" s="15" t="s">
         <v>652</v>
       </c>
@@ -10889,7 +10898,7 @@
       <c r="J413" s="10"/>
       <c r="K413" s="10"/>
     </row>
-    <row r="414" spans="1:11" ht="60">
+    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
         <v>697</v>
       </c>
@@ -10914,7 +10923,7 @@
       <c r="J414" s="10"/>
       <c r="K414" s="10"/>
     </row>
-    <row r="415" spans="1:11" ht="49.5" customHeight="1">
+    <row r="415" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E415" s="15">
         <v>2</v>
       </c>
@@ -10927,7 +10936,7 @@
       <c r="J415" s="10"/>
       <c r="K415" s="10"/>
     </row>
-    <row r="416" spans="1:11" ht="45.75" customHeight="1">
+    <row r="416" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D416" s="15" t="s">
         <v>679</v>
       </c>
@@ -10943,7 +10952,7 @@
       <c r="J416" s="10"/>
       <c r="K416" s="10"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D417" s="15" t="s">
         <v>433</v>
       </c>
@@ -10959,7 +10968,7 @@
       <c r="J417" s="10"/>
       <c r="K417" s="10"/>
     </row>
-    <row r="418" spans="1:11" ht="30">
+    <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D418" s="15" t="s">
         <v>704</v>
       </c>
@@ -10975,7 +10984,7 @@
       <c r="J418" s="10"/>
       <c r="K418" s="10"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D419" s="15" t="s">
         <v>653</v>
       </c>
@@ -10991,7 +11000,7 @@
       <c r="J419" s="10"/>
       <c r="K419" s="10"/>
     </row>
-    <row r="420" spans="1:11" ht="60">
+    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>702</v>
       </c>
@@ -11016,7 +11025,7 @@
       <c r="J420" s="10"/>
       <c r="K420" s="10"/>
     </row>
-    <row r="421" spans="1:11" ht="53.25" customHeight="1">
+    <row r="421" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E421" s="15">
         <v>2</v>
       </c>
@@ -11029,7 +11038,7 @@
       <c r="J421" s="10"/>
       <c r="K421" s="10"/>
     </row>
-    <row r="422" spans="1:11" ht="55.5" customHeight="1">
+    <row r="422" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D422" s="15" t="s">
         <v>679</v>
       </c>
@@ -11045,7 +11054,7 @@
       <c r="J422" s="10"/>
       <c r="K422" s="10"/>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D423" s="15" t="s">
         <v>433</v>
       </c>
@@ -11061,7 +11070,7 @@
       <c r="J423" s="10"/>
       <c r="K423" s="10"/>
     </row>
-    <row r="424" spans="1:11" ht="30">
+    <row r="424" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D424" s="15" t="s">
         <v>704</v>
       </c>
@@ -11077,7 +11086,7 @@
       <c r="J424" s="10"/>
       <c r="K424" s="10"/>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D425" s="15" t="s">
         <v>653</v>
       </c>
@@ -11093,7 +11102,7 @@
       <c r="J425" s="10"/>
       <c r="K425" s="10"/>
     </row>
-    <row r="426" spans="1:11" ht="60">
+    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>707</v>
       </c>
@@ -11118,7 +11127,7 @@
       <c r="J426" s="10"/>
       <c r="K426" s="10"/>
     </row>
-    <row r="427" spans="1:11" ht="30">
+    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E427" s="15">
         <v>2</v>
       </c>
@@ -11131,7 +11140,7 @@
       <c r="J427" s="10"/>
       <c r="K427" s="10"/>
     </row>
-    <row r="428" spans="1:11" ht="52.5" customHeight="1">
+    <row r="428" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D428" s="15" t="s">
         <v>679</v>
       </c>
@@ -11147,7 +11156,7 @@
       <c r="J428" s="10"/>
       <c r="K428" s="10"/>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D429" s="15" t="s">
         <v>433</v>
       </c>
@@ -11163,7 +11172,7 @@
       <c r="J429" s="10"/>
       <c r="K429" s="10"/>
     </row>
-    <row r="430" spans="1:11" ht="30">
+    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D430" s="15" t="s">
         <v>704</v>
       </c>
@@ -11179,7 +11188,7 @@
       <c r="J430" s="10"/>
       <c r="K430" s="10"/>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D431" s="15" t="s">
         <v>653</v>
       </c>
@@ -11195,7 +11204,7 @@
       <c r="J431" s="10"/>
       <c r="K431" s="10"/>
     </row>
-    <row r="432" spans="1:11" ht="60">
+    <row r="432" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>712</v>
       </c>
@@ -11220,7 +11229,7 @@
       <c r="J432" s="10"/>
       <c r="K432" s="10"/>
     </row>
-    <row r="433" spans="1:11" ht="30">
+    <row r="433" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E433" s="15">
         <v>2</v>
       </c>
@@ -11233,7 +11242,7 @@
       <c r="J433" s="10"/>
       <c r="K433" s="10"/>
     </row>
-    <row r="434" spans="1:11" ht="51" customHeight="1">
+    <row r="434" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D434" s="15" t="s">
         <v>679</v>
       </c>
@@ -11249,7 +11258,7 @@
       <c r="J434" s="10"/>
       <c r="K434" s="10"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D435" s="15" t="s">
         <v>433</v>
       </c>
@@ -11265,7 +11274,7 @@
       <c r="J435" s="10"/>
       <c r="K435" s="10"/>
     </row>
-    <row r="436" spans="1:11" ht="30">
+    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D436" s="15" t="s">
         <v>704</v>
       </c>
@@ -11281,7 +11290,7 @@
       <c r="J436" s="10"/>
       <c r="K436" s="10"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D437" s="15" t="s">
         <v>653</v>
       </c>
@@ -11297,7 +11306,7 @@
       <c r="J437" s="10"/>
       <c r="K437" s="10"/>
     </row>
-    <row r="438" spans="1:11" ht="45">
+    <row r="438" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>716</v>
       </c>
@@ -11322,7 +11331,7 @@
       <c r="J438" s="10"/>
       <c r="K438" s="10"/>
     </row>
-    <row r="439" spans="1:11" ht="97.5" customHeight="1">
+    <row r="439" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E439" s="15">
         <v>2</v>
       </c>
@@ -11332,7 +11341,7 @@
       <c r="J439" s="10"/>
       <c r="K439" s="10"/>
     </row>
-    <row r="440" spans="1:11" ht="60" customHeight="1">
+    <row r="440" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D440" s="9" t="s">
         <v>727</v>
       </c>
@@ -11348,7 +11357,7 @@
       <c r="J440" s="10"/>
       <c r="K440" s="10"/>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D441" s="15" t="s">
         <v>721</v>
       </c>
@@ -11364,7 +11373,7 @@
       <c r="J441" s="10"/>
       <c r="K441" s="10"/>
     </row>
-    <row r="442" spans="1:11" ht="30">
+    <row r="442" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D442" s="15" t="s">
         <v>722</v>
       </c>
@@ -11380,7 +11389,7 @@
       <c r="J442" s="10"/>
       <c r="K442" s="10"/>
     </row>
-    <row r="443" spans="1:11" ht="48.75" customHeight="1">
+    <row r="443" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>720</v>
       </c>
@@ -11405,7 +11414,7 @@
       <c r="J443" s="10"/>
       <c r="K443" s="10"/>
     </row>
-    <row r="444" spans="1:11" ht="70.5" customHeight="1">
+    <row r="444" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E444" s="15">
         <v>2</v>
       </c>
@@ -11415,7 +11424,7 @@
       <c r="J444" s="10"/>
       <c r="K444" s="10"/>
     </row>
-    <row r="445" spans="1:11" ht="54.75" customHeight="1">
+    <row r="445" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D445" s="9" t="s">
         <v>727</v>
       </c>
@@ -11431,7 +11440,7 @@
       <c r="J445" s="10"/>
       <c r="K445" s="10"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D446" s="15" t="s">
         <v>721</v>
       </c>
@@ -11447,7 +11456,7 @@
       <c r="J446" s="10"/>
       <c r="K446" s="10"/>
     </row>
-    <row r="447" spans="1:11" ht="30">
+    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D447" s="15" t="s">
         <v>722</v>
       </c>
@@ -11463,7 +11472,7 @@
       <c r="J447" s="10"/>
       <c r="K447" s="10"/>
     </row>
-    <row r="448" spans="1:11" ht="51.75" customHeight="1">
+    <row r="448" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>731</v>
       </c>
@@ -11488,7 +11497,7 @@
       <c r="J448" s="10"/>
       <c r="K448" s="10"/>
     </row>
-    <row r="449" spans="1:11" ht="66" customHeight="1">
+    <row r="449" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E449" s="15">
         <v>2</v>
       </c>
@@ -11498,7 +11507,7 @@
       <c r="J449" s="10"/>
       <c r="K449" s="10"/>
     </row>
-    <row r="450" spans="1:11" ht="60" customHeight="1">
+    <row r="450" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D450" s="15" t="s">
         <v>335</v>
       </c>
@@ -11514,7 +11523,7 @@
       <c r="J450" s="10"/>
       <c r="K450" s="10"/>
     </row>
-    <row r="451" spans="1:11" ht="30">
+    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D451" s="15" t="s">
         <v>394</v>
       </c>
@@ -11530,7 +11539,7 @@
       <c r="J451" s="10"/>
       <c r="K451" s="10"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D452" s="15" t="s">
         <v>433</v>
       </c>
@@ -11546,7 +11555,7 @@
       <c r="J452" s="10"/>
       <c r="K452" s="10"/>
     </row>
-    <row r="453" spans="1:11" ht="45">
+    <row r="453" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
         <v>734</v>
       </c>
@@ -11571,7 +11580,7 @@
       <c r="J453" s="10"/>
       <c r="K453" s="10"/>
     </row>
-    <row r="454" spans="1:11" ht="78" customHeight="1">
+    <row r="454" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E454" s="15">
         <v>2</v>
       </c>
@@ -11584,7 +11593,7 @@
       <c r="J454" s="10"/>
       <c r="K454" s="10"/>
     </row>
-    <row r="455" spans="1:11" ht="59.25" customHeight="1">
+    <row r="455" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D455" s="15" t="s">
         <v>191</v>
       </c>
@@ -11600,7 +11609,7 @@
       <c r="J455" s="10"/>
       <c r="K455" s="10"/>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D456" s="15" t="s">
         <v>177</v>
       </c>
@@ -11616,7 +11625,7 @@
       <c r="J456" s="10"/>
       <c r="K456" s="10"/>
     </row>
-    <row r="457" spans="1:11" ht="45">
+    <row r="457" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>741</v>
       </c>
@@ -11641,7 +11650,7 @@
       <c r="J457" s="10"/>
       <c r="K457" s="10"/>
     </row>
-    <row r="458" spans="1:11" ht="87" customHeight="1">
+    <row r="458" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E458" s="15">
         <v>2</v>
       </c>
@@ -11654,7 +11663,7 @@
       <c r="J458" s="10"/>
       <c r="K458" s="10"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E459" s="15">
         <v>3</v>
       </c>
@@ -11667,7 +11676,7 @@
       <c r="J459" s="10"/>
       <c r="K459" s="10"/>
     </row>
-    <row r="460" spans="1:11" ht="45">
+    <row r="460" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>753</v>
       </c>
@@ -11692,7 +11701,7 @@
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
     </row>
-    <row r="461" spans="1:11" ht="85.5" customHeight="1">
+    <row r="461" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E461" s="15">
         <v>2</v>
       </c>
@@ -11705,7 +11714,7 @@
       <c r="J461" s="10"/>
       <c r="K461" s="10"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D462" s="15" t="s">
         <v>752</v>
       </c>
@@ -11721,7 +11730,7 @@
       <c r="J462" s="10"/>
       <c r="K462" s="10"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E463" s="15">
         <v>4</v>
       </c>
@@ -11734,7 +11743,7 @@
       <c r="J463" s="10"/>
       <c r="K463" s="10"/>
     </row>
-    <row r="464" spans="1:11" ht="45">
+    <row r="464" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
         <v>754</v>
       </c>
@@ -11759,7 +11768,7 @@
       <c r="J464" s="10"/>
       <c r="K464" s="10"/>
     </row>
-    <row r="465" spans="1:11" ht="70.5" customHeight="1">
+    <row r="465" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E465" s="15">
         <v>2</v>
       </c>
@@ -11772,7 +11781,7 @@
       <c r="J465" s="10"/>
       <c r="K465" s="10"/>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D466" s="15" t="s">
         <v>756</v>
       </c>
@@ -11788,7 +11797,7 @@
       <c r="J466" s="10"/>
       <c r="K466" s="10"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D467" s="15" t="s">
         <v>758</v>
       </c>
@@ -11804,7 +11813,7 @@
       <c r="J467" s="10"/>
       <c r="K467" s="10"/>
     </row>
-    <row r="468" spans="1:11" ht="45">
+    <row r="468" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
         <v>762</v>
       </c>
@@ -11829,7 +11838,7 @@
       <c r="J468" s="10"/>
       <c r="K468" s="10"/>
     </row>
-    <row r="469" spans="1:11" ht="89.25" customHeight="1">
+    <row r="469" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E469" s="15">
         <v>2</v>
       </c>
@@ -11842,7 +11851,7 @@
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E470" s="15">
         <v>3</v>
       </c>
@@ -11855,7 +11864,7 @@
       <c r="J470" s="10"/>
       <c r="K470" s="10"/>
     </row>
-    <row r="471" spans="1:11" ht="45">
+    <row r="471" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>766</v>
       </c>
@@ -11880,7 +11889,7 @@
       <c r="J471" s="10"/>
       <c r="K471" s="10"/>
     </row>
-    <row r="472" spans="1:11" ht="86.25" customHeight="1">
+    <row r="472" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E472" s="15">
         <v>2</v>
       </c>
@@ -11893,7 +11902,7 @@
       <c r="J472" s="10"/>
       <c r="K472" s="10"/>
     </row>
-    <row r="473" spans="1:11" ht="86.25" customHeight="1">
+    <row r="473" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="27"/>
       <c r="C473" s="27"/>
       <c r="E473" s="15">
@@ -11908,7 +11917,7 @@
       <c r="J473" s="10"/>
       <c r="K473" s="10"/>
     </row>
-    <row r="474" spans="1:11" ht="41.25" customHeight="1">
+    <row r="474" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D474" s="15" t="s">
         <v>770</v>
       </c>
@@ -11924,7 +11933,7 @@
       <c r="J474" s="10"/>
       <c r="K474" s="10"/>
     </row>
-    <row r="475" spans="1:11" ht="41.25" customHeight="1">
+    <row r="475" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="27"/>
       <c r="C475" s="27"/>
       <c r="D475" s="15" t="s">
@@ -11942,7 +11951,7 @@
       <c r="J475" s="10"/>
       <c r="K475" s="10"/>
     </row>
-    <row r="476" spans="1:11" ht="41.25" customHeight="1">
+    <row r="476" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="27"/>
       <c r="C476" s="27"/>
       <c r="D476" s="15" t="s">
@@ -11957,7 +11966,7 @@
       <c r="J476" s="10"/>
       <c r="K476" s="10"/>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D477" s="15" t="s">
         <v>775</v>
       </c>
@@ -11973,7 +11982,7 @@
       <c r="J477" s="10"/>
       <c r="K477" s="10"/>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D478" s="15" t="s">
         <v>774</v>
       </c>
@@ -11989,7 +11998,7 @@
       <c r="J478" s="10"/>
       <c r="K478" s="10"/>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D479" s="15" t="s">
         <v>433</v>
       </c>
@@ -12005,7 +12014,7 @@
       <c r="J479" s="10"/>
       <c r="K479" s="10"/>
     </row>
-    <row r="480" spans="1:11" ht="45">
+    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>776</v>
       </c>
@@ -12030,7 +12039,7 @@
       <c r="J480" s="10"/>
       <c r="K480" s="10"/>
     </row>
-    <row r="481" spans="1:11" ht="79.5" customHeight="1">
+    <row r="481" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E481" s="15">
         <v>2</v>
       </c>
@@ -12040,7 +12049,7 @@
       <c r="J481" s="10"/>
       <c r="K481" s="10"/>
     </row>
-    <row r="482" spans="1:11" ht="30">
+    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D482" s="15" t="s">
         <v>790</v>
       </c>
@@ -12056,7 +12065,7 @@
       <c r="J482" s="10"/>
       <c r="K482" s="10"/>
     </row>
-    <row r="483" spans="1:11" ht="30">
+    <row r="483" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D483" s="15" t="s">
         <v>791</v>
       </c>
@@ -12069,7 +12078,7 @@
       <c r="J483" s="10"/>
       <c r="K483" s="10"/>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B484" s="27"/>
       <c r="C484" s="27"/>
       <c r="E484" s="15">
@@ -12084,7 +12093,7 @@
       <c r="J484" s="10"/>
       <c r="K484" s="10"/>
     </row>
-    <row r="485" spans="1:11" ht="30">
+    <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D485" s="15" t="s">
         <v>792</v>
       </c>
@@ -12100,7 +12109,7 @@
       <c r="J485" s="10"/>
       <c r="K485" s="10"/>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D486" s="15" t="s">
         <v>793</v>
       </c>
@@ -12116,7 +12125,7 @@
       <c r="J486" s="10"/>
       <c r="K486" s="10"/>
     </row>
-    <row r="487" spans="1:11" ht="33.75" customHeight="1">
+    <row r="487" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D487" s="9" t="s">
         <v>794</v>
       </c>
@@ -12132,7 +12141,7 @@
       <c r="J487" s="10"/>
       <c r="K487" s="10"/>
     </row>
-    <row r="488" spans="1:11" ht="47.25" customHeight="1">
+    <row r="488" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D488" s="15" t="s">
         <v>795</v>
       </c>
@@ -12148,7 +12157,7 @@
       <c r="J488" s="10"/>
       <c r="K488" s="10"/>
     </row>
-    <row r="489" spans="1:11" ht="30">
+    <row r="489" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D489" s="15" t="s">
         <v>478</v>
       </c>
@@ -12164,7 +12173,7 @@
       <c r="J489" s="10"/>
       <c r="K489" s="10"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D490" s="15" t="s">
         <v>153</v>
       </c>
@@ -12180,7 +12189,7 @@
       <c r="J490" s="10"/>
       <c r="K490" s="10"/>
     </row>
-    <row r="491" spans="1:11" ht="63" customHeight="1">
+    <row r="491" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>796</v>
       </c>
@@ -12205,7 +12214,7 @@
       <c r="J491" s="10"/>
       <c r="K491" s="10"/>
     </row>
-    <row r="492" spans="1:11" ht="82.5" customHeight="1">
+    <row r="492" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E492" s="15">
         <v>2</v>
       </c>
@@ -12218,7 +12227,7 @@
       <c r="J492" s="10"/>
       <c r="K492" s="10"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D493" s="15" t="s">
         <v>191</v>
       </c>
@@ -12234,7 +12243,7 @@
       <c r="J493" s="10"/>
       <c r="K493" s="10"/>
     </row>
-    <row r="494" spans="1:11" ht="30">
+    <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D494" s="15" t="s">
         <v>814</v>
       </c>
@@ -12247,7 +12256,7 @@
       <c r="J494" s="10"/>
       <c r="K494" s="10"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B495" s="27"/>
       <c r="C495" s="27"/>
       <c r="E495" s="15">
@@ -12259,7 +12268,7 @@
       <c r="J495" s="10"/>
       <c r="K495" s="10"/>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B496" s="27"/>
       <c r="C496" s="27"/>
       <c r="F496" s="9" t="s">
@@ -12271,7 +12280,7 @@
       <c r="J496" s="10"/>
       <c r="K496" s="10"/>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D497" s="15" t="s">
         <v>255</v>
       </c>
@@ -12287,7 +12296,7 @@
       <c r="J497" s="10"/>
       <c r="K497" s="10"/>
     </row>
-    <row r="498" spans="1:11" ht="45">
+    <row r="498" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
         <v>823</v>
       </c>
@@ -12312,7 +12321,7 @@
       <c r="J498" s="10"/>
       <c r="K498" s="10"/>
     </row>
-    <row r="499" spans="1:11" ht="84" customHeight="1">
+    <row r="499" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E499" s="15">
         <v>2</v>
       </c>
@@ -12322,7 +12331,7 @@
       <c r="J499" s="10"/>
       <c r="K499" s="10"/>
     </row>
-    <row r="500" spans="1:11" ht="21.75" customHeight="1">
+    <row r="500" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="28"/>
       <c r="C500" s="28"/>
       <c r="E500" s="15">
@@ -12334,7 +12343,7 @@
       <c r="J500" s="10"/>
       <c r="K500" s="10"/>
     </row>
-    <row r="501" spans="1:11" ht="60">
+    <row r="501" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="D501" s="15" t="s">
         <v>825</v>
       </c>
@@ -12350,7 +12359,7 @@
       <c r="J501" s="10"/>
       <c r="K501" s="10"/>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E502" s="15">
         <v>5</v>
       </c>
@@ -12363,7 +12372,7 @@
       <c r="J502" s="10"/>
       <c r="K502" s="10"/>
     </row>
-    <row r="503" spans="1:11" ht="30">
+    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E503" s="15">
         <v>6</v>
       </c>
@@ -12376,7 +12385,7 @@
       <c r="J503" s="10"/>
       <c r="K503" s="10"/>
     </row>
-    <row r="504" spans="1:11" ht="45">
+    <row r="504" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
         <v>830</v>
       </c>
@@ -12401,7 +12410,7 @@
       <c r="J504" s="10"/>
       <c r="K504" s="10"/>
     </row>
-    <row r="505" spans="1:11" ht="85.5" customHeight="1">
+    <row r="505" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E505" s="15">
         <v>2</v>
       </c>
@@ -12414,7 +12423,7 @@
       <c r="J505" s="10"/>
       <c r="K505" s="10"/>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E506" s="15">
         <v>3</v>
       </c>
@@ -12427,7 +12436,7 @@
       <c r="J506" s="10"/>
       <c r="K506" s="10"/>
     </row>
-    <row r="507" spans="1:11" ht="45">
+    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="s">
         <v>832</v>
       </c>
@@ -12452,7 +12461,7 @@
       <c r="J507" s="10"/>
       <c r="K507" s="10"/>
     </row>
-    <row r="508" spans="1:11" ht="60">
+    <row r="508" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E508" s="15">
         <v>2</v>
       </c>
@@ -12465,7 +12474,7 @@
       <c r="J508" s="10"/>
       <c r="K508" s="10"/>
     </row>
-    <row r="509" spans="1:11" ht="30">
+    <row r="509" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="28"/>
       <c r="C509" s="28"/>
       <c r="D509" s="15" t="s">
@@ -12483,7 +12492,7 @@
       <c r="J509" s="10"/>
       <c r="K509" s="10"/>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B510" s="28"/>
       <c r="C510" s="28"/>
       <c r="D510" s="15" t="s">
@@ -12501,7 +12510,7 @@
       <c r="J510" s="10"/>
       <c r="K510" s="10"/>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E511" s="15">
         <v>5</v>
       </c>
@@ -12514,7 +12523,7 @@
       <c r="J511" s="10"/>
       <c r="K511" s="10"/>
     </row>
-    <row r="512" spans="1:11" ht="45">
+    <row r="512" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="s">
         <v>836</v>
       </c>
@@ -12539,7 +12548,7 @@
       <c r="J512" s="10"/>
       <c r="K512" s="10"/>
     </row>
-    <row r="513" spans="1:11" ht="45">
+    <row r="513" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E513" s="15">
         <v>2</v>
       </c>
@@ -12552,7 +12561,7 @@
       <c r="J513" s="10"/>
       <c r="K513" s="10"/>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B514" s="28"/>
       <c r="C514" s="28"/>
       <c r="D514" s="15" t="s">
@@ -12570,7 +12579,7 @@
       <c r="J514" s="10"/>
       <c r="K514" s="10"/>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B515" s="28"/>
       <c r="C515" s="28"/>
       <c r="D515" s="15" t="s">
@@ -12588,7 +12597,7 @@
       <c r="J515" s="10"/>
       <c r="K515" s="10"/>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E516" s="15">
         <v>5</v>
       </c>
@@ -12601,7 +12610,7 @@
       <c r="J516" s="10"/>
       <c r="K516" s="10"/>
     </row>
-    <row r="517" spans="1:11" ht="48.75" customHeight="1">
+    <row r="517" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
         <v>852</v>
       </c>
@@ -12626,7 +12635,7 @@
       <c r="J517" s="10"/>
       <c r="K517" s="10"/>
     </row>
-    <row r="518" spans="1:11" ht="45">
+    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E518" s="15">
         <v>2</v>
       </c>
@@ -12639,7 +12648,7 @@
       <c r="J518" s="10"/>
       <c r="K518" s="10"/>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B519" s="28"/>
       <c r="C519" s="28"/>
       <c r="E519" s="15">
@@ -12654,7 +12663,7 @@
       <c r="J519" s="10"/>
       <c r="K519" s="10"/>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E520" s="15">
         <v>4</v>
       </c>
@@ -12667,7 +12676,7 @@
       <c r="J520" s="10"/>
       <c r="K520" s="10"/>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E521" s="15">
         <v>5</v>
       </c>
@@ -12679,7 +12688,7 @@
       </c>
       <c r="K521" s="10"/>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D522" s="15" t="s">
         <v>846</v>
       </c>
@@ -12694,7 +12703,7 @@
       </c>
       <c r="K522" s="10"/>
     </row>
-    <row r="523" spans="1:11" ht="45">
+    <row r="523" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
         <v>853</v>
       </c>
@@ -12718,7 +12727,7 @@
       </c>
       <c r="K523" s="10"/>
     </row>
-    <row r="524" spans="1:11" ht="45">
+    <row r="524" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E524" s="15">
         <v>2</v>
       </c>
@@ -12730,7 +12739,7 @@
       </c>
       <c r="K524" s="10"/>
     </row>
-    <row r="525" spans="1:11" ht="30">
+    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E525" s="15">
         <v>3</v>
       </c>
@@ -12742,7 +12751,7 @@
       </c>
       <c r="K525" s="10"/>
     </row>
-    <row r="526" spans="1:11" ht="45">
+    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="s">
         <v>856</v>
       </c>
@@ -12766,7 +12775,7 @@
       </c>
       <c r="K526" s="10"/>
     </row>
-    <row r="527" spans="1:11" ht="60">
+    <row r="527" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E527" s="15">
         <v>2</v>
       </c>
@@ -12778,7 +12787,7 @@
       </c>
       <c r="K527" s="10"/>
     </row>
-    <row r="528" spans="1:11" ht="30">
+    <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E528" s="15">
         <v>3</v>
       </c>
@@ -12790,7 +12799,7 @@
       </c>
       <c r="K528" s="10"/>
     </row>
-    <row r="529" spans="1:11" ht="45">
+    <row r="529" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A529" s="9" t="s">
         <v>859</v>
       </c>
@@ -12814,7 +12823,7 @@
       </c>
       <c r="K529" s="10"/>
     </row>
-    <row r="530" spans="1:11" ht="45">
+    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E530" s="15">
         <v>2</v>
       </c>
@@ -12826,7 +12835,7 @@
       </c>
       <c r="K530" s="10"/>
     </row>
-    <row r="531" spans="1:11" ht="30">
+    <row r="531" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E531" s="15">
         <v>3</v>
       </c>
@@ -12838,7 +12847,7 @@
       </c>
       <c r="K531" s="10"/>
     </row>
-    <row r="532" spans="1:11" ht="45">
+    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
         <v>863</v>
       </c>
@@ -12862,7 +12871,7 @@
       </c>
       <c r="K532" s="10"/>
     </row>
-    <row r="533" spans="1:11" ht="45">
+    <row r="533" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E533" s="15">
         <v>2</v>
       </c>
@@ -12874,7 +12883,7 @@
       </c>
       <c r="K533" s="10"/>
     </row>
-    <row r="534" spans="1:11" ht="30">
+    <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E534" s="15">
         <v>3</v>
       </c>
@@ -12886,7 +12895,7 @@
       </c>
       <c r="K534" s="10"/>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B535" s="28"/>
       <c r="C535" s="28"/>
       <c r="D535" s="15" t="s">
@@ -12900,7 +12909,7 @@
       </c>
       <c r="K535" s="10"/>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B536" s="28"/>
       <c r="C536" s="28"/>
       <c r="E536" s="15">
@@ -12914,7 +12923,7 @@
       </c>
       <c r="K536" s="10"/>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B537" s="28"/>
       <c r="C537" s="28"/>
       <c r="D537" s="15" t="s">
@@ -12931,7 +12940,7 @@
       </c>
       <c r="K537" s="10"/>
     </row>
-    <row r="538" spans="1:11" ht="45">
+    <row r="538" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
         <v>866</v>
       </c>
@@ -12955,7 +12964,7 @@
       </c>
       <c r="K538" s="10"/>
     </row>
-    <row r="539" spans="1:11" ht="45">
+    <row r="539" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E539" s="15">
         <v>2</v>
       </c>
@@ -12964,7 +12973,7 @@
       </c>
       <c r="K539" s="10"/>
     </row>
-    <row r="540" spans="1:11" ht="30">
+    <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E540" s="15">
         <v>3</v>
       </c>
@@ -12976,7 +12985,7 @@
       </c>
       <c r="K540" s="10"/>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D541" s="15" t="s">
         <v>394</v>
       </c>
@@ -12988,7 +12997,7 @@
       </c>
       <c r="K541" s="10"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E542" s="15">
         <v>5</v>
       </c>
@@ -13000,7 +13009,7 @@
       </c>
       <c r="K542" s="10"/>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D543" s="15" t="s">
         <v>433</v>
       </c>
@@ -13015,7 +13024,7 @@
       </c>
       <c r="K543" s="10"/>
     </row>
-    <row r="544" spans="1:11" ht="45">
+    <row r="544" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
         <v>873</v>
       </c>
@@ -13039,7 +13048,7 @@
       </c>
       <c r="K544" s="10"/>
     </row>
-    <row r="545" spans="1:11" ht="77.25" customHeight="1">
+    <row r="545" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E545" s="15">
         <v>2</v>
       </c>
@@ -13051,7 +13060,7 @@
       </c>
       <c r="K545" s="10"/>
     </row>
-    <row r="546" spans="1:11" ht="30">
+    <row r="546" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E546" s="15">
         <v>3</v>
       </c>
@@ -13063,7 +13072,7 @@
       </c>
       <c r="K546" s="10"/>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D547" s="15" t="s">
         <v>394</v>
       </c>
@@ -13075,7 +13084,7 @@
       </c>
       <c r="K547" s="10"/>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E548" s="15">
         <v>5</v>
       </c>
@@ -13087,7 +13096,7 @@
       </c>
       <c r="K548" s="10"/>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D549" s="15" t="s">
         <v>433</v>
       </c>
@@ -13102,7 +13111,7 @@
       </c>
       <c r="K549" s="10"/>
     </row>
-    <row r="550" spans="1:11" ht="45">
+    <row r="550" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
         <v>876</v>
       </c>
@@ -13126,7 +13135,7 @@
       </c>
       <c r="K550" s="10"/>
     </row>
-    <row r="551" spans="1:11" ht="79.5" customHeight="1">
+    <row r="551" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E551" s="15">
         <v>2</v>
       </c>
@@ -13135,7 +13144,7 @@
       </c>
       <c r="K551" s="10"/>
     </row>
-    <row r="552" spans="1:11" ht="30">
+    <row r="552" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E552" s="15">
         <v>3</v>
       </c>
@@ -13147,7 +13156,7 @@
       </c>
       <c r="K552" s="10"/>
     </row>
-    <row r="553" spans="1:11" ht="30">
+    <row r="553" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E553" s="15">
         <v>4</v>
       </c>
@@ -13159,7 +13168,7 @@
       </c>
       <c r="K553" s="10"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D554" s="15" t="s">
         <v>881</v>
       </c>
@@ -13171,7 +13180,7 @@
       </c>
       <c r="K554" s="10"/>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E555" s="15">
         <v>6</v>
       </c>
@@ -13183,7 +13192,7 @@
       </c>
       <c r="K555" s="10"/>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D556" s="15" t="s">
         <v>433</v>
       </c>
@@ -13198,7 +13207,7 @@
       </c>
       <c r="K556" s="10"/>
     </row>
-    <row r="557" spans="1:11" ht="45">
+    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
         <v>880</v>
       </c>
@@ -13222,7 +13231,7 @@
       </c>
       <c r="K557" s="10"/>
     </row>
-    <row r="558" spans="1:11" ht="45">
+    <row r="558" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E558" s="15">
         <v>2</v>
       </c>
@@ -13231,7 +13240,7 @@
       </c>
       <c r="K558" s="10"/>
     </row>
-    <row r="559" spans="1:11" ht="30">
+    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E559" s="15">
         <v>3</v>
       </c>
@@ -13243,7 +13252,7 @@
       </c>
       <c r="K559" s="10"/>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D560" s="15" t="s">
         <v>881</v>
       </c>
@@ -13258,7 +13267,7 @@
       </c>
       <c r="K560" s="10"/>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D561" s="15" t="s">
         <v>433</v>
       </c>
@@ -13273,7 +13282,7 @@
       </c>
       <c r="K561" s="10"/>
     </row>
-    <row r="562" spans="1:11" ht="45">
+    <row r="562" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="s">
         <v>883</v>
       </c>
@@ -13297,7 +13306,7 @@
       </c>
       <c r="K562" s="10"/>
     </row>
-    <row r="563" spans="1:11" ht="66" customHeight="1">
+    <row r="563" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E563" s="15">
         <v>2</v>
       </c>
@@ -13306,7 +13315,7 @@
       </c>
       <c r="K563" s="10"/>
     </row>
-    <row r="564" spans="1:11" ht="30">
+    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E564" s="15">
         <v>3</v>
       </c>
@@ -13315,7 +13324,7 @@
       </c>
       <c r="K564" s="10"/>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D565" s="15" t="s">
         <v>881</v>
       </c>
@@ -13330,7 +13339,7 @@
       </c>
       <c r="K565" s="10"/>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D566" s="15" t="s">
         <v>433</v>
       </c>
@@ -13345,7 +13354,7 @@
       </c>
       <c r="K566" s="10"/>
     </row>
-    <row r="567" spans="1:11" ht="45">
+    <row r="567" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
         <v>885</v>
       </c>
@@ -13369,7 +13378,7 @@
       </c>
       <c r="K567" s="10"/>
     </row>
-    <row r="568" spans="1:11" ht="45">
+    <row r="568" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E568" s="15">
         <v>2</v>
       </c>
@@ -13378,7 +13387,7 @@
       </c>
       <c r="K568" s="10"/>
     </row>
-    <row r="569" spans="1:11" ht="30">
+    <row r="569" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E569" s="15">
         <v>3</v>
       </c>
@@ -13389,7 +13398,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D570" s="15" t="s">
         <v>881</v>
       </c>
@@ -13403,7 +13412,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D571" s="15" t="s">
         <v>433</v>
       </c>
@@ -13417,7 +13426,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="45">
+    <row r="572" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
         <v>887</v>
       </c>
@@ -13440,7 +13449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="45">
+    <row r="573" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B573" s="28"/>
       <c r="C573" s="28"/>
       <c r="E573" s="15">
@@ -13450,7 +13459,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="30">
+    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B574" s="28"/>
       <c r="C574" s="28"/>
       <c r="E574" s="15">
@@ -13463,7 +13472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B575" s="28"/>
       <c r="C575" s="28"/>
       <c r="D575" s="15" t="s">
@@ -13479,7 +13488,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B576" s="28"/>
       <c r="C576" s="28"/>
       <c r="D576" s="15" t="s">
@@ -13495,7 +13504,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="45">
+    <row r="577" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
         <v>888</v>
       </c>
@@ -13518,7 +13527,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="45">
+    <row r="578" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B578" s="28"/>
       <c r="C578" s="28"/>
       <c r="E578" s="15">
@@ -13529,7 +13538,7 @@
       </c>
       <c r="H578" s="24"/>
     </row>
-    <row r="579" spans="1:8" ht="30">
+    <row r="579" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="28"/>
       <c r="C579" s="28"/>
       <c r="E579" s="15">
@@ -13543,7 +13552,7 @@
       </c>
       <c r="H579" s="24"/>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B580" s="28"/>
       <c r="C580" s="28"/>
       <c r="D580" s="15" t="s">
@@ -13560,7 +13569,7 @@
       </c>
       <c r="H580" s="24"/>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B581" s="28"/>
       <c r="C581" s="28"/>
       <c r="D581" s="15" t="s">
@@ -13577,7 +13586,7 @@
       </c>
       <c r="H581" s="24"/>
     </row>
-    <row r="582" spans="1:8" ht="67.5" customHeight="1">
+    <row r="582" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="s">
         <v>889</v>
       </c>
@@ -13600,7 +13609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="45">
+    <row r="583" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B583" s="28"/>
       <c r="C583" s="28"/>
       <c r="E583" s="15">
@@ -13610,7 +13619,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="30">
+    <row r="584" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B584" s="28"/>
       <c r="C584" s="28"/>
       <c r="E584" s="15">
@@ -13623,7 +13632,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B585" s="28"/>
       <c r="C585" s="28"/>
       <c r="E585" s="15">
@@ -13636,7 +13645,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B586" s="28"/>
       <c r="C586" s="28"/>
       <c r="E586" s="15">
@@ -13649,7 +13658,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="45">
+    <row r="587" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
         <v>890</v>
       </c>
@@ -13672,7 +13681,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="45">
+    <row r="588" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B588" s="28"/>
       <c r="C588" s="28"/>
       <c r="D588" s="9"/>
@@ -13683,7 +13692,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="30">
+    <row r="589" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B589" s="28"/>
       <c r="C589" s="28"/>
       <c r="D589" s="9"/>
@@ -13697,7 +13706,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B590" s="28"/>
       <c r="C590" s="28"/>
       <c r="D590" s="9"/>
@@ -13711,7 +13720,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B591" s="28"/>
       <c r="C591" s="28"/>
       <c r="D591" s="9"/>
@@ -13725,7 +13734,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="30">
+    <row r="592" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="28"/>
       <c r="C592" s="28"/>
       <c r="D592" s="9" t="s">
@@ -13738,7 +13747,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="30">
+    <row r="593" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B593" s="28"/>
       <c r="C593" s="28"/>
       <c r="D593" s="9"/>
@@ -13752,7 +13761,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B594" s="28"/>
       <c r="C594" s="28"/>
       <c r="D594" s="9" t="s">
@@ -13768,7 +13777,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B595" s="28"/>
       <c r="C595" s="28"/>
       <c r="D595" s="9" t="s">
@@ -13784,7 +13793,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="45.75" customHeight="1">
+    <row r="596" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="28"/>
       <c r="C596" s="28"/>
       <c r="D596" s="9" t="s">
@@ -13800,7 +13809,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="45">
+    <row r="597" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
         <v>891</v>
       </c>
@@ -13823,7 +13832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="81.75" customHeight="1">
+    <row r="598" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="28"/>
       <c r="C598" s="28"/>
       <c r="D598" s="9"/>
@@ -13834,7 +13843,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="30">
+    <row r="599" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B599" s="28"/>
       <c r="C599" s="28"/>
       <c r="D599" s="9"/>
@@ -13848,7 +13857,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B600" s="28"/>
       <c r="C600" s="28"/>
       <c r="D600" s="9" t="s">
@@ -13864,7 +13873,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B601" s="29"/>
       <c r="C601" s="29"/>
       <c r="D601" s="9" t="s">
@@ -13880,7 +13889,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="45">
+    <row r="602" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="s">
         <v>892</v>
       </c>
@@ -13903,7 +13912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="82.5" customHeight="1">
+    <row r="603" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="28"/>
       <c r="C603" s="28"/>
       <c r="D603" s="9"/>
@@ -13914,7 +13923,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="30">
+    <row r="604" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B604" s="28"/>
       <c r="C604" s="28"/>
       <c r="D604" s="9"/>
@@ -13928,7 +13937,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B605" s="29"/>
       <c r="C605" s="29"/>
       <c r="D605" s="9" t="s">
@@ -13944,7 +13953,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B606" s="28"/>
       <c r="C606" s="28"/>
       <c r="D606" s="9" t="s">
@@ -13960,7 +13969,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="45">
+    <row r="607" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
         <v>893</v>
       </c>
@@ -13983,7 +13992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="45">
+    <row r="608" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B608" s="28"/>
       <c r="C608" s="28"/>
       <c r="E608" s="15">
@@ -13993,7 +14002,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="30">
+    <row r="609" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B609" s="28"/>
       <c r="C609" s="28"/>
       <c r="E609" s="15">
@@ -14006,7 +14015,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B610" s="29"/>
       <c r="C610" s="29"/>
       <c r="D610" s="15" t="s">
@@ -14022,7 +14031,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B611" s="28"/>
       <c r="C611" s="28"/>
       <c r="D611" s="15" t="s">
@@ -14038,7 +14047,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="45">
+    <row r="612" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="s">
         <v>894</v>
       </c>
@@ -14061,7 +14070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="87.75" customHeight="1">
+    <row r="613" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="28"/>
       <c r="C613" s="28"/>
       <c r="E613" s="15">
@@ -14071,7 +14080,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="30">
+    <row r="614" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B614" s="28"/>
       <c r="C614" s="28"/>
       <c r="E614" s="15">
@@ -14084,7 +14093,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B615" s="29"/>
       <c r="C615" s="29"/>
       <c r="D615" s="15" t="s">
@@ -14100,7 +14109,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B616" s="28"/>
       <c r="C616" s="28"/>
       <c r="D616" s="15" t="s">
@@ -14116,7 +14125,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="57" customHeight="1">
+    <row r="617" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="9" t="s">
         <v>895</v>
       </c>
@@ -14139,7 +14148,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="75" customHeight="1">
+    <row r="618" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="28"/>
       <c r="C618" s="28"/>
       <c r="E618" s="15">
@@ -14149,7 +14158,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="30">
+    <row r="619" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B619" s="28"/>
       <c r="C619" s="28"/>
       <c r="E619" s="15">
@@ -14162,7 +14171,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B620" s="29"/>
       <c r="C620" s="29"/>
       <c r="D620" s="15" t="s">
@@ -14178,7 +14187,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B621" s="28"/>
       <c r="C621" s="28"/>
       <c r="D621" s="15" t="s">
@@ -14194,7 +14203,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="45">
+    <row r="622" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="s">
         <v>896</v>
       </c>
@@ -14217,7 +14226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="66.75" customHeight="1">
+    <row r="623" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E623" s="15">
         <v>2</v>
       </c>
@@ -14225,7 +14234,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="30">
+    <row r="624" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="E624" s="15">
         <v>3</v>
       </c>
@@ -14236,7 +14245,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D625" s="15" t="s">
         <v>881</v>
       </c>
@@ -14250,7 +14259,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D626" s="15" t="s">
         <v>944</v>
       </c>
@@ -14264,7 +14273,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="45">
+    <row r="627" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A627" s="9" t="s">
         <v>945</v>
       </c>
@@ -14287,7 +14296,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="76.5" customHeight="1">
+    <row r="628" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="29"/>
       <c r="C628" s="29"/>
       <c r="E628" s="15">
@@ -14297,7 +14306,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B629" s="29"/>
       <c r="C629" s="29"/>
       <c r="E629" s="15">
@@ -14310,7 +14319,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B630" s="29"/>
       <c r="C630" s="29"/>
       <c r="D630" s="15" t="s">
@@ -14326,7 +14335,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="45">
+    <row r="631" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A631" s="9" t="s">
         <v>946</v>
       </c>
@@ -14349,7 +14358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="73.5" customHeight="1">
+    <row r="632" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="29"/>
       <c r="C632" s="29"/>
       <c r="E632" s="15">
@@ -14359,7 +14368,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B633" s="29"/>
       <c r="C633" s="29"/>
       <c r="E633" s="15">
@@ -14372,7 +14381,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="30">
+    <row r="634" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B634" s="29"/>
       <c r="C634" s="29"/>
       <c r="D634" s="15" t="s">
@@ -14388,7 +14397,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B635" s="29"/>
       <c r="C635" s="29"/>
       <c r="D635" s="15" t="s">
@@ -14404,7 +14413,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="45">
+    <row r="636" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A636" s="9" t="s">
         <v>947</v>
       </c>
@@ -14427,7 +14436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="45">
+    <row r="637" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B637" s="29"/>
       <c r="C637" s="29"/>
       <c r="E637" s="15">
@@ -14437,7 +14446,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B638" s="29"/>
       <c r="C638" s="29"/>
       <c r="E638" s="15">
@@ -14450,7 +14459,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="30">
+    <row r="639" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B639" s="29"/>
       <c r="C639" s="29"/>
       <c r="D639" s="15" t="s">
@@ -14466,7 +14475,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B640" s="29"/>
       <c r="C640" s="29"/>
       <c r="D640" s="15" t="s">
@@ -14482,7 +14491,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="45">
+    <row r="641" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A641" s="9" t="s">
         <v>948</v>
       </c>
@@ -14505,7 +14514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="66" customHeight="1">
+    <row r="642" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="29"/>
       <c r="C642" s="29"/>
       <c r="E642" s="15">
@@ -14515,7 +14524,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B643" s="29"/>
       <c r="C643" s="29"/>
       <c r="E643" s="15">
@@ -14528,7 +14537,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="30">
+    <row r="644" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B644" s="29"/>
       <c r="C644" s="29"/>
       <c r="D644" s="15" t="s">
@@ -14544,7 +14553,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B645" s="29"/>
       <c r="C645" s="29"/>
       <c r="D645" s="15" t="s">
@@ -14560,7 +14569,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="45">
+    <row r="646" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="9" t="s">
         <v>949</v>
       </c>
@@ -14583,7 +14592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="66" customHeight="1">
+    <row r="647" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E647" s="15">
         <v>2</v>
       </c>
@@ -14591,7 +14600,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E648" s="15">
         <v>3</v>
       </c>
@@ -14602,7 +14611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="30">
+    <row r="649" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D649" s="15" t="s">
         <v>394</v>
       </c>
@@ -14616,7 +14625,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D650" s="15" t="s">
         <v>944</v>
       </c>
@@ -14630,7 +14639,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="45">
+    <row r="651" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A651" s="9" t="s">
         <v>970</v>
       </c>
@@ -14653,7 +14662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="63" customHeight="1">
+    <row r="652" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="29"/>
       <c r="C652" s="29"/>
       <c r="D652" s="9"/>
@@ -14664,7 +14673,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B653" s="29"/>
       <c r="C653" s="29"/>
       <c r="D653" s="9"/>
@@ -14678,7 +14687,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="30">
+    <row r="654" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B654" s="29"/>
       <c r="C654" s="29"/>
       <c r="D654" s="9" t="s">
@@ -14694,7 +14703,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B655" s="29"/>
       <c r="C655" s="29"/>
       <c r="D655" s="9" t="s">
@@ -14710,7 +14719,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="45">
+    <row r="656" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="s">
         <v>972</v>
       </c>
@@ -14733,7 +14742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="74.25" customHeight="1">
+    <row r="657" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="29"/>
       <c r="C657" s="29"/>
       <c r="D657" s="9"/>
@@ -14744,7 +14753,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="40.5" customHeight="1">
+    <row r="658" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="29"/>
       <c r="C658" s="29"/>
       <c r="D658" s="9"/>
@@ -14758,7 +14767,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="45" customHeight="1">
+    <row r="659" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="29"/>
       <c r="C659" s="29"/>
       <c r="D659" s="9" t="s">
@@ -14774,7 +14783,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B660" s="29"/>
       <c r="C660" s="29"/>
       <c r="D660" s="9" t="s">
@@ -14790,7 +14799,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="45">
+    <row r="661" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A661" s="9" t="s">
         <v>973</v>
       </c>
@@ -14813,7 +14822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="63" customHeight="1">
+    <row r="662" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="29"/>
       <c r="C662" s="29"/>
       <c r="D662" s="9"/>
@@ -14824,7 +14833,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="63" customHeight="1">
+    <row r="663" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="29"/>
       <c r="C663" s="29"/>
       <c r="D663" s="9"/>
@@ -14838,7 +14847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="63" customHeight="1">
+    <row r="664" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="29"/>
       <c r="C664" s="29"/>
       <c r="D664" s="9" t="s">
@@ -14854,7 +14863,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B665" s="29"/>
       <c r="C665" s="29"/>
       <c r="D665" s="9" t="s">
@@ -14870,7 +14879,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="45">
+    <row r="666" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A666" s="9" t="s">
         <v>974</v>
       </c>
@@ -14893,7 +14902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="66" customHeight="1">
+    <row r="667" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="29"/>
       <c r="C667" s="29"/>
       <c r="D667" s="9"/>
@@ -14904,7 +14913,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="66" customHeight="1">
+    <row r="668" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="29"/>
       <c r="C668" s="29"/>
       <c r="D668" s="9"/>
@@ -14918,7 +14927,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="66" customHeight="1">
+    <row r="669" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="29"/>
       <c r="C669" s="29"/>
       <c r="D669" s="9" t="s">
@@ -14934,7 +14943,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B670" s="29"/>
       <c r="C670" s="29"/>
       <c r="D670" s="9" t="s">
@@ -14950,7 +14959,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="55.5" customHeight="1">
+    <row r="671" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="9" t="s">
         <v>975</v>
       </c>
@@ -14973,7 +14982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="63" customHeight="1">
+    <row r="672" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E672" s="15">
         <v>2</v>
       </c>
@@ -14981,7 +14990,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E673" s="15">
         <v>3</v>
       </c>
@@ -14992,7 +15001,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="30">
+    <row r="674" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D674" s="15" t="s">
         <v>394</v>
       </c>
@@ -15006,7 +15015,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D675" s="15" t="s">
         <v>944</v>
       </c>
@@ -15020,7 +15029,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="45">
+    <row r="676" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A676" s="9" t="s">
         <v>984</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="69.75" customHeight="1">
+    <row r="677" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E677" s="15">
         <v>2</v>
       </c>
@@ -15051,7 +15060,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E678" s="15">
         <v>3</v>
       </c>
@@ -15062,7 +15071,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="30">
+    <row r="679" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D679" s="15" t="s">
         <v>394</v>
       </c>
@@ -15076,7 +15085,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D680" s="15" t="s">
         <v>944</v>
       </c>
@@ -15090,7 +15099,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="45">
+    <row r="681" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A681" s="9" t="s">
         <v>987</v>
       </c>
@@ -15113,7 +15122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="79.5" customHeight="1">
+    <row r="682" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="30"/>
       <c r="C682" s="30"/>
       <c r="D682" s="9"/>
@@ -15124,7 +15133,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B683" s="30"/>
       <c r="C683" s="30"/>
       <c r="D683" s="9"/>
@@ -15138,7 +15147,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="45">
+    <row r="684" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A684" s="9" t="s">
         <v>989</v>
       </c>
@@ -15161,7 +15170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="66.75" customHeight="1">
+    <row r="685" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="30"/>
       <c r="C685" s="30"/>
       <c r="E685" s="15">
@@ -15171,7 +15180,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="66.75" customHeight="1">
+    <row r="686" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="30"/>
       <c r="C686" s="30"/>
       <c r="E686" s="15">
@@ -15184,7 +15193,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B687" s="30"/>
       <c r="C687" s="30"/>
       <c r="D687" s="15" t="s">
@@ -15200,7 +15209,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="45">
+    <row r="688" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A688" s="9" t="s">
         <v>990</v>
       </c>
@@ -15223,7 +15232,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="67.5" customHeight="1">
+    <row r="689" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="30"/>
       <c r="C689" s="30"/>
       <c r="E689" s="15">
@@ -15233,7 +15242,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B690" s="30"/>
       <c r="C690" s="30"/>
       <c r="E690" s="15">
@@ -15246,7 +15255,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B691" s="30"/>
       <c r="C691" s="30"/>
       <c r="D691" s="15" t="s">
@@ -15262,7 +15271,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="45">
+    <row r="692" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A692" s="9" t="s">
         <v>991</v>
       </c>
@@ -15285,7 +15294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="59.25" customHeight="1">
+    <row r="693" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="30"/>
       <c r="C693" s="30"/>
       <c r="E693" s="15">
@@ -15295,7 +15304,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="17.25" customHeight="1">
+    <row r="694" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="30"/>
       <c r="C694" s="30"/>
       <c r="E694" s="15">
@@ -15308,7 +15317,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="45">
+    <row r="695" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A695" s="9" t="s">
         <v>992</v>
       </c>
@@ -15331,7 +15340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="62.25" customHeight="1">
+    <row r="696" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="30"/>
       <c r="C696" s="30"/>
       <c r="E696" s="15">
@@ -15341,7 +15350,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="30">
+    <row r="697" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B697" s="30"/>
       <c r="C697" s="30"/>
       <c r="D697" s="15" t="s">
@@ -15354,7 +15363,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B698" s="30"/>
       <c r="C698" s="30"/>
       <c r="E698" s="15">
@@ -15367,7 +15376,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B699" s="30"/>
       <c r="C699" s="30"/>
       <c r="D699" s="15" t="s">
@@ -15383,7 +15392,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="45">
+    <row r="700" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A700" s="9" t="s">
         <v>993</v>
       </c>
@@ -15406,7 +15415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="60.75" customHeight="1">
+    <row r="701" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E701" s="15">
         <v>2</v>
       </c>
@@ -15414,7 +15423,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D702" s="15" t="s">
         <v>479</v>
       </c>
@@ -15428,7 +15437,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B703" s="30"/>
       <c r="C703" s="30"/>
       <c r="D703" s="15" t="s">
@@ -15444,7 +15453,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="30">
+    <row r="704" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B704" s="30"/>
       <c r="C704" s="30"/>
       <c r="D704" s="15" t="s">
@@ -15460,7 +15469,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="45">
+    <row r="705" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="9" t="s">
         <v>1001</v>
       </c>
@@ -15483,7 +15492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="86.25" customHeight="1">
+    <row r="706" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E706" s="15">
         <v>2</v>
       </c>
@@ -15491,7 +15500,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D707" s="15" t="s">
         <v>478</v>
       </c>
@@ -15505,7 +15514,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="30">
+    <row r="708" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D708" s="15" t="s">
         <v>1024</v>
       </c>
@@ -15519,7 +15528,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D709" s="15" t="s">
         <v>944</v>
       </c>
@@ -15533,7 +15542,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="45">
+    <row r="710" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A710" s="9" t="s">
         <v>1026</v>
       </c>
@@ -15556,7 +15565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="66.75" customHeight="1">
+    <row r="711" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E711" s="15">
         <v>2</v>
       </c>
@@ -15564,7 +15573,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="30">
+    <row r="712" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="E712" s="15">
         <v>3</v>
       </c>
@@ -15575,7 +15584,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="45">
+    <row r="713" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A713" s="9" t="s">
         <v>1034</v>
       </c>
@@ -15598,7 +15607,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="30">
+    <row r="714" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D714" s="15" t="s">
         <v>580</v>
       </c>
@@ -15612,7 +15621,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D715" s="15" t="s">
         <v>1036</v>
       </c>
@@ -15626,7 +15635,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D716" s="15" t="s">
         <v>1037</v>
       </c>
@@ -15640,7 +15649,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="165">
+    <row r="717" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="E717" s="15">
         <v>5</v>
       </c>
@@ -15651,7 +15660,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="30">
+    <row r="718" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="9" t="s">
         <v>1045</v>
       </c>
@@ -15671,7 +15680,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="45">
+    <row r="719" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B719" s="30"/>
       <c r="C719" s="30"/>
       <c r="D719" s="9"/>
@@ -15682,7 +15691,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E720" s="15">
         <v>2</v>
       </c>
@@ -15690,7 +15699,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="30">
+    <row r="721" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="E721" s="15">
         <v>3</v>
       </c>
@@ -15701,7 +15710,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="45">
+    <row r="722" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A722" s="9" t="s">
         <v>1051</v>
       </c>
@@ -15724,7 +15733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="30">
+    <row r="723" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="E723" s="15">
         <v>2</v>
       </c>
@@ -15738,7 +15747,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D724" s="15" t="s">
         <v>177</v>
       </c>
@@ -15752,7 +15761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="30">
+    <row r="725" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D725" s="15" t="s">
         <v>1056</v>
       </c>
@@ -15766,7 +15775,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="273" customHeight="1">
+    <row r="726" spans="1:8" ht="273" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B726" s="31"/>
       <c r="C726" s="31"/>
       <c r="E726" s="15">
@@ -15779,7 +15788,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="45">
+    <row r="727" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A727" s="9" t="s">
         <v>1065</v>
       </c>
@@ -15802,7 +15811,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="45">
+    <row r="728" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B728" s="30"/>
       <c r="C728" s="30"/>
       <c r="E728" s="15">
@@ -15815,7 +15824,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B729" s="30"/>
       <c r="C729" s="30"/>
       <c r="E729" s="15">
@@ -15828,7 +15837,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B730" s="30"/>
       <c r="C730" s="30"/>
       <c r="D730" s="15" t="s">
@@ -15844,7 +15853,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B731" s="30"/>
       <c r="C731" s="30"/>
       <c r="D731" s="15" t="s">
@@ -15860,7 +15869,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="45">
+    <row r="732" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A732" s="9" t="s">
         <v>1067</v>
       </c>
@@ -15883,7 +15892,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="45">
+    <row r="733" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="E733" s="15">
         <v>2</v>
       </c>
@@ -15894,7 +15903,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="30">
+    <row r="734" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="E734" s="15">
         <v>3</v>
       </c>
@@ -15905,7 +15914,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="48" customHeight="1">
+    <row r="735" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B735" s="31"/>
       <c r="D735" s="15" t="s">
         <v>1085</v>
@@ -15920,7 +15929,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D736" s="15" t="s">
         <v>1086</v>
       </c>
@@ -15934,7 +15943,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="30">
+    <row r="737" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D737" s="15" t="s">
         <v>1087</v>
       </c>
@@ -15948,64 +15957,68 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="45">
-      <c r="A738" s="9" t="s">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B738" s="32"/>
+      <c r="C738" s="32"/>
+    </row>
+    <row r="739" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A739" s="9" t="s">
         <v>1072</v>
       </c>
-      <c r="B738" s="31" t="s">
+      <c r="B739" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C738" s="31" t="s">
+      <c r="C739" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D738" s="9" t="s">
+      <c r="D739" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="E738" s="15">
+      <c r="E739" s="15">
         <v>1</v>
       </c>
-      <c r="F738" s="9" t="s">
+      <c r="F739" s="9" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="30">
-      <c r="E739" s="15">
+    <row r="740" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E740" s="15">
         <v>2</v>
       </c>
-      <c r="F739" s="9" t="s">
+      <c r="F740" s="9" t="s">
         <v>1077</v>
       </c>
-      <c r="G739" s="9" t="s">
+      <c r="G740" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="H739" s="9" t="s">
+      <c r="H740" s="9" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
-      <c r="B740" s="31"/>
-      <c r="C740" s="31"/>
-      <c r="D740" s="15" t="s">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B741" s="31"/>
+      <c r="C741" s="31"/>
+      <c r="D741" s="15" t="s">
         <v>1079</v>
       </c>
-      <c r="E740" s="15">
+      <c r="E741" s="15">
         <v>3</v>
       </c>
-      <c r="F740" s="9" t="s">
+      <c r="F741" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G740" s="9" t="s">
+      <c r="G741" s="9" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="30">
-      <c r="E741" s="15">
+    <row r="742" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E742" s="15">
         <v>4</v>
       </c>
-      <c r="F741" s="9" t="s">
+      <c r="F742" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="G741" s="9" t="s">
+      <c r="G742" s="9" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -16019,160 +16032,160 @@
     <mergeCell ref="D49:D55"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J301:J520">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J301:J520" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K568">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K568" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J300">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J300" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="http://mediwarecloud.com/mediwareqc/EMR/DoctorHome.aspx"/>
-    <hyperlink ref="G56" r:id="rId2"/>
-    <hyperlink ref="H50" r:id="rId3"/>
-    <hyperlink ref="H26" r:id="rId4"/>
-    <hyperlink ref="H31" r:id="rId5" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H84" r:id="rId6"/>
-    <hyperlink ref="H78" r:id="rId7"/>
-    <hyperlink ref="H75" r:id="rId8" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H88" r:id="rId9"/>
-    <hyperlink ref="H98" r:id="rId10"/>
-    <hyperlink ref="H106" r:id="rId11"/>
-    <hyperlink ref="H115" r:id="rId12"/>
-    <hyperlink ref="H119" r:id="rId13"/>
-    <hyperlink ref="H121" r:id="rId14"/>
-    <hyperlink ref="H123" r:id="rId15"/>
-    <hyperlink ref="H125" r:id="rId16"/>
-    <hyperlink ref="H127" r:id="rId17"/>
-    <hyperlink ref="H132" r:id="rId18"/>
-    <hyperlink ref="H137" r:id="rId19" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H147" r:id="rId20" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H149" r:id="rId21" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H151" r:id="rId22" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H154" r:id="rId23" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H158" r:id="rId24" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H164" r:id="rId25" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H169" r:id="rId26" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H171" r:id="rId27" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H175" r:id="rId28" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H177" r:id="rId29" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H182" r:id="rId30" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H189" r:id="rId31" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H193" r:id="rId32" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H196" r:id="rId33" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H204" r:id="rId34" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H207" r:id="rId35" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H210" r:id="rId36" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H216" r:id="rId37" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H219" r:id="rId38" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H222" r:id="rId39" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H226" r:id="rId40" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H233" r:id="rId41" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H237" r:id="rId42" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H242" r:id="rId43" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H247" r:id="rId44" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H251" r:id="rId45" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H259" r:id="rId46" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H267" r:id="rId47" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H271" r:id="rId48" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H275" r:id="rId49" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H279" r:id="rId50" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H283" r:id="rId51" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H289" r:id="rId52" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H297" r:id="rId53" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H301" r:id="rId54" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H305" r:id="rId55" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H310" r:id="rId56" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H317" r:id="rId57" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H325" r:id="rId58" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H331" r:id="rId59" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H335" r:id="rId60" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H338" r:id="rId61" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H341" r:id="rId62" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H344" r:id="rId63" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H347" r:id="rId64" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H350" r:id="rId65" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H357" r:id="rId66" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H363" r:id="rId67" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H369" r:id="rId68" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H375" r:id="rId69" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H380" r:id="rId70" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H386" r:id="rId71" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H392" r:id="rId72" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H398" r:id="rId73" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H404" r:id="rId74" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H409" r:id="rId75" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H414" r:id="rId76" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H420" r:id="rId77" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H426" r:id="rId78" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H432" r:id="rId79" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H438" r:id="rId80" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H443" r:id="rId81"/>
-    <hyperlink ref="H448" r:id="rId82"/>
-    <hyperlink ref="H453" r:id="rId83"/>
-    <hyperlink ref="H457" r:id="rId84" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H460" r:id="rId85" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H464" r:id="rId86" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H468" r:id="rId87" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H471" r:id="rId88" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H480" r:id="rId89" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H491" r:id="rId90" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H498" r:id="rId91" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H504" r:id="rId92" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H507" r:id="rId93" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H512" r:id="rId94" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H517" r:id="rId95" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H523" r:id="rId96" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H526" r:id="rId97" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H529" r:id="rId98" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H532" r:id="rId99" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H538" r:id="rId100" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H544" r:id="rId101" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H550" r:id="rId102" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H557" r:id="rId103" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H562" r:id="rId104" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H567" r:id="rId105" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H572" r:id="rId106" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H577" r:id="rId107" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H582" r:id="rId108" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H587" r:id="rId109" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H597" r:id="rId110" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H602" r:id="rId111" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H607" r:id="rId112" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H612" r:id="rId113" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H617" r:id="rId114" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H622" r:id="rId115" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H627" r:id="rId116" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H631" r:id="rId117" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H636" r:id="rId118" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H641" r:id="rId119" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H646" r:id="rId120" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H651" r:id="rId121" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H656" r:id="rId122" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H661" r:id="rId123" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H666" r:id="rId124" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H671" r:id="rId125" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H676" r:id="rId126" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H681" r:id="rId127" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H684" r:id="rId128" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H688" r:id="rId129" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H692" r:id="rId130" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H695" r:id="rId131" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H700" r:id="rId132" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H705" r:id="rId133" display="http://mediwarecloud.com/"/>
-    <hyperlink ref="H710" r:id="rId134"/>
-    <hyperlink ref="H713" r:id="rId135" display="https://projects.zoho.com/"/>
-    <hyperlink ref="H718" r:id="rId136" display="https://projects.zoho.com/"/>
-    <hyperlink ref="H722" r:id="rId137" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H3" r:id="rId1" display="http://mediwarecloud.com/mediwareqc/EMR/DoctorHome.aspx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H50" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H31" r:id="rId5" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H84" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H78" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H75" r:id="rId8" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H88" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H98" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H106" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H115" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H119" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H121" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H123" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H125" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H127" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H132" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H137" r:id="rId19" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H147" r:id="rId20" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H149" r:id="rId21" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H151" r:id="rId22" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H154" r:id="rId23" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H158" r:id="rId24" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H164" r:id="rId25" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H169" r:id="rId26" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H171" r:id="rId27" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H175" r:id="rId28" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H177" r:id="rId29" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H182" r:id="rId30" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H189" r:id="rId31" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H193" r:id="rId32" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H196" r:id="rId33" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H204" r:id="rId34" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H207" r:id="rId35" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H210" r:id="rId36" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H216" r:id="rId37" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H219" r:id="rId38" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H222" r:id="rId39" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H226" r:id="rId40" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H233" r:id="rId41" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H237" r:id="rId42" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H242" r:id="rId43" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H247" r:id="rId44" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H251" r:id="rId45" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H259" r:id="rId46" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H267" r:id="rId47" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H271" r:id="rId48" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H275" r:id="rId49" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H279" r:id="rId50" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H283" r:id="rId51" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H289" r:id="rId52" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H297" r:id="rId53" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H301" r:id="rId54" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H305" r:id="rId55" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H310" r:id="rId56" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H317" r:id="rId57" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H325" r:id="rId58" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H331" r:id="rId59" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H335" r:id="rId60" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H338" r:id="rId61" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H341" r:id="rId62" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H344" r:id="rId63" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H347" r:id="rId64" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H350" r:id="rId65" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H357" r:id="rId66" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H363" r:id="rId67" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H369" r:id="rId68" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H375" r:id="rId69" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H380" r:id="rId70" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H386" r:id="rId71" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H392" r:id="rId72" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H398" r:id="rId73" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H404" r:id="rId74" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H409" r:id="rId75" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H414" r:id="rId76" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H420" r:id="rId77" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H426" r:id="rId78" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H432" r:id="rId79" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H438" r:id="rId80" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H443" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H448" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H453" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H457" r:id="rId84" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H460" r:id="rId85" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H464" r:id="rId86" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H468" r:id="rId87" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H471" r:id="rId88" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H480" r:id="rId89" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H491" r:id="rId90" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H498" r:id="rId91" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H504" r:id="rId92" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H507" r:id="rId93" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H512" r:id="rId94" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="H517" r:id="rId95" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H523" r:id="rId96" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H526" r:id="rId97" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H529" r:id="rId98" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H532" r:id="rId99" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H538" r:id="rId100" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H544" r:id="rId101" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H550" r:id="rId102" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H557" r:id="rId103" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H562" r:id="rId104" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H567" r:id="rId105" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H572" r:id="rId106" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H577" r:id="rId107" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H582" r:id="rId108" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H587" r:id="rId109" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H597" r:id="rId110" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H602" r:id="rId111" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H607" r:id="rId112" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H612" r:id="rId113" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H617" r:id="rId114" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H622" r:id="rId115" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H627" r:id="rId116" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H631" r:id="rId117" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H636" r:id="rId118" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H641" r:id="rId119" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="H646" r:id="rId120" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="H651" r:id="rId121" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H656" r:id="rId122" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="H661" r:id="rId123" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="H666" r:id="rId124" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="H671" r:id="rId125" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="H676" r:id="rId126" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="H681" r:id="rId127" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="H684" r:id="rId128" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="H688" r:id="rId129" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="H692" r:id="rId130" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="H695" r:id="rId131" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="H700" r:id="rId132" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H705" r:id="rId133" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="H710" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="H713" r:id="rId135" display="https://projects.zoho.com/" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="H718" r:id="rId136" display="https://projects.zoho.com/" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="H722" r:id="rId137" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId138"/>
